--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_65.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_65.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Extended Stay America New Orleans Metairie</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Metairie</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>104</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>36868</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70001</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70001</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_65.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_65.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="857">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,2479 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r581544085-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40314</t>
+  </si>
+  <si>
+    <t>93092</t>
+  </si>
+  <si>
+    <t>581544085</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Would never stay here again</t>
+  </si>
+  <si>
+    <t>No hot water for the 2 nights we stayed! After being outside all day in the hot and humid New Orleans weather with 2 toddlers you would expect to be able to wash off in a warm shower but nope, not here! If you want more towels you have to bring your used ones to the front desk. You have to take your own trash out. The breakfast sucked. Instant oatmeal packages, processed muffins and granola bars. No fresh fruit or juice.  I've stayed in plenty extended stay places and they were all far better than this. We should have been given a partial refund for not being able to take a hot or even warm shower. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>No hot water for the 2 nights we stayed! After being outside all day in the hot and humid New Orleans weather with 2 toddlers you would expect to be able to wash off in a warm shower but nope, not here! If you want more towels you have to bring your used ones to the front desk. You have to take your own trash out. The breakfast sucked. Instant oatmeal packages, processed muffins and granola bars. No fresh fruit or juice.  I've stayed in plenty extended stay places and they were all far better than this. We should have been given a partial refund for not being able to take a hot or even warm shower. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r561293905-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>561293905</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Great Choice</t>
+  </si>
+  <si>
+    <t>We normally stay in the quarter but last minute prices we're crazy. We found Extended Stay...and we are so glad we did. Easy Reservations, Check in and Check out. Friendly and cozy. We may actually end up staying here more often.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>We normally stay in the quarter but last minute prices we're crazy. We found Extended Stay...and we are so glad we did. Easy Reservations, Check in and Check out. Friendly and cozy. We may actually end up staying here more often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r581209315-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>581209315</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>fantastic staff</t>
+  </si>
+  <si>
+    <t>Great location and super helpful staff. Property is a bit dated and limited but you get what you pay for. Rooms were fine and clean. Safety was a concern as side doors did not lock at night. Walked up stairs and found a homeless man sleeping on the 4th floor stairway. Nice restaurant next to site with awesome food and a great happy hour. Easy and quick drive to city, super dome and all tourist stuff. even with some negatives I would stay again as we saved @ $1000 over 5 nights by staying here as opposed to downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Great location and super helpful staff. Property is a bit dated and limited but you get what you pay for. Rooms were fine and clean. Safety was a concern as side doors did not lock at night. Walked up stairs and found a homeless man sleeping on the 4th floor stairway. Nice restaurant next to site with awesome food and a great happy hour. Easy and quick drive to city, super dome and all tourist stuff. even with some negatives I would stay again as we saved @ $1000 over 5 nights by staying here as opposed to downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r579704067-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>579704067</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>No cable TV</t>
+  </si>
+  <si>
+    <t>The satellite has been going in and out since March. As time has progressed to this point, May, the satellite still has not been repaired and you can only get a few local channels like PBS, ABC and NBC. Two months! And nothing has been done about it. I overlooked the filthy rooms, hallways, etc because I figured I could put up with anything for a couple of months while waiting to  be relocated (work)  if the hotel would allow pets. But, the lose of cable/satellite TV is asking too much. What really makes me angry is that I paid $300.00 non-refundable pet fee. I am having to move again, because this hotel reneged on our contract, at no fault of my own. I gave a 2 rating on this hotel only because the staff is very nice. It's not their fault. The fault is Reggie, the District Director. He has done absolutely NOTHING to resolve  this issue. I got a survey shortly after I moved it asking how the room is. I said the staff is nice but really, the hotel is absolutely filthy. The response I got back was to the effects of "We hope you'll give us another chance."MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>The satellite has been going in and out since March. As time has progressed to this point, May, the satellite still has not been repaired and you can only get a few local channels like PBS, ABC and NBC. Two months! And nothing has been done about it. I overlooked the filthy rooms, hallways, etc because I figured I could put up with anything for a couple of months while waiting to  be relocated (work)  if the hotel would allow pets. But, the lose of cable/satellite TV is asking too much. What really makes me angry is that I paid $300.00 non-refundable pet fee. I am having to move again, because this hotel reneged on our contract, at no fault of my own. I gave a 2 rating on this hotel only because the staff is very nice. It's not their fault. The fault is Reggie, the District Director. He has done absolutely NOTHING to resolve  this issue. I got a survey shortly after I moved it asking how the room is. I said the staff is nice but really, the hotel is absolutely filthy. The response I got back was to the effects of "We hope you'll give us another chance."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r574000090-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574000090</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Extended Stay...NO WAY!</t>
+  </si>
+  <si>
+    <t>Stay away from this place. I found out the hard way that this isn't a regular hotel that will attend to guests needs. This is like a self service place where you do everything yourself including taking out your own trash! What a waste.  Upon my check-in the lights in the room didn't work, also no trash can. I spoke with front desk Britney and she was very pleasant and quickly took care of the problems. Small kitchenette was dusty, moldy, smelled. Fridge soiled. I ignored this because I wasn't planning on using that area anyway, but the bathroom was disappointing. The pictures speak for themselves. Dog hair everywhere, on the carpet , on the bed sheets, it was all over my socks and bottom of my pajamas. The next  night I couln't rest because of all the loud noises. Walls very thin and sounded like a herd of buffalo had checked in and was staying above me, the room next door you could hear the person sneeze. It was terrible. I had to have my tv on all night to try to drown out all the noise. In the morning I complained to Latisha and she really didn't apologize but told me all the "rules" and what extended stay really was. She also told me the manager would be in later if I wanted to talk to him. I told her I was going to enjoy my vacation and...Stay away from this place. I found out the hard way that this isn't a regular hotel that will attend to guests needs. This is like a self service place where you do everything yourself including taking out your own trash! What a waste.  Upon my check-in the lights in the room didn't work, also no trash can. I spoke with front desk Britney and she was very pleasant and quickly took care of the problems. Small kitchenette was dusty, moldy, smelled. Fridge soiled. I ignored this because I wasn't planning on using that area anyway, but the bathroom was disappointing. The pictures speak for themselves. Dog hair everywhere, on the carpet , on the bed sheets, it was all over my socks and bottom of my pajamas. The next  night I couln't rest because of all the loud noises. Walls very thin and sounded like a herd of buffalo had checked in and was staying above me, the room next door you could hear the person sneeze. It was terrible. I had to have my tv on all night to try to drown out all the noise. In the morning I complained to Latisha and she really didn't apologize but told me all the "rules" and what extended stay really was. She also told me the manager would be in later if I wanted to talk to him. I told her I was going to enjoy my vacation and I didn't have time to wait around for someone who would only tell me the same things. It wasn't like I could get a better price or refund.  She then informed me that the rooms are cleaned once a week, the bedding isn't changed but once a week and you have to take out your own trash and place it in bins in a dirty room at the end of each floor.  There were suppose to be clean trash bags for you to replace your trash can bags with but there weren't any.  I went back to the front desk to complain and Latisha gave me bags, then she gave me another room. This room was better because it was on the third floor with no one above me.  The bathroom still had problems. The shower curtain bar was broken and hung forward making it difficult to use the toilet. Moldy trash spilling out of a bag was in the stairwells , left by other guests and food on the carpet in the hallway. I could go on and on and on but the bottom line is SPEND YOUR MONEY ELSEWHERE.  This place was not worth the price I paid. Value for non- service stay should have been less than $50 a night. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Stay away from this place. I found out the hard way that this isn't a regular hotel that will attend to guests needs. This is like a self service place where you do everything yourself including taking out your own trash! What a waste.  Upon my check-in the lights in the room didn't work, also no trash can. I spoke with front desk Britney and she was very pleasant and quickly took care of the problems. Small kitchenette was dusty, moldy, smelled. Fridge soiled. I ignored this because I wasn't planning on using that area anyway, but the bathroom was disappointing. The pictures speak for themselves. Dog hair everywhere, on the carpet , on the bed sheets, it was all over my socks and bottom of my pajamas. The next  night I couln't rest because of all the loud noises. Walls very thin and sounded like a herd of buffalo had checked in and was staying above me, the room next door you could hear the person sneeze. It was terrible. I had to have my tv on all night to try to drown out all the noise. In the morning I complained to Latisha and she really didn't apologize but told me all the "rules" and what extended stay really was. She also told me the manager would be in later if I wanted to talk to him. I told her I was going to enjoy my vacation and...Stay away from this place. I found out the hard way that this isn't a regular hotel that will attend to guests needs. This is like a self service place where you do everything yourself including taking out your own trash! What a waste.  Upon my check-in the lights in the room didn't work, also no trash can. I spoke with front desk Britney and she was very pleasant and quickly took care of the problems. Small kitchenette was dusty, moldy, smelled. Fridge soiled. I ignored this because I wasn't planning on using that area anyway, but the bathroom was disappointing. The pictures speak for themselves. Dog hair everywhere, on the carpet , on the bed sheets, it was all over my socks and bottom of my pajamas. The next  night I couln't rest because of all the loud noises. Walls very thin and sounded like a herd of buffalo had checked in and was staying above me, the room next door you could hear the person sneeze. It was terrible. I had to have my tv on all night to try to drown out all the noise. In the morning I complained to Latisha and she really didn't apologize but told me all the "rules" and what extended stay really was. She also told me the manager would be in later if I wanted to talk to him. I told her I was going to enjoy my vacation and I didn't have time to wait around for someone who would only tell me the same things. It wasn't like I could get a better price or refund.  She then informed me that the rooms are cleaned once a week, the bedding isn't changed but once a week and you have to take out your own trash and place it in bins in a dirty room at the end of each floor.  There were suppose to be clean trash bags for you to replace your trash can bags with but there weren't any.  I went back to the front desk to complain and Latisha gave me bags, then she gave me another room. This room was better because it was on the third floor with no one above me.  The bathroom still had problems. The shower curtain bar was broken and hung forward making it difficult to use the toilet. Moldy trash spilling out of a bag was in the stairwells , left by other guests and food on the carpet in the hallway. I could go on and on and on but the bottom line is SPEND YOUR MONEY ELSEWHERE.  This place was not worth the price I paid. Value for non- service stay should have been less than $50 a night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r573475523-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>573475523</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Absolute Worst</t>
+  </si>
+  <si>
+    <t>dirty room, unfriendly staff, manager appears to be about 16 years old. Stay away. found two cockroaches in the bathroom and the "kitchen" is a joke. Getting extra towels was like pulling teeth around here.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2018</t>
+  </si>
+  <si>
+    <t>dirty room, unfriendly staff, manager appears to be about 16 years old. Stay away. found two cockroaches in the bathroom and the "kitchen" is a joke. Getting extra towels was like pulling teeth around here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r571819449-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>571819449</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Dissappointed</t>
+  </si>
+  <si>
+    <t>Very disappointed - had to bring linen to lobby in order to get replacements, no coffee pot or coffee in room, pitiful breakfast choices, no hair dryer and had to request dishes.  Price was NOT a bargain either.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Very disappointed - had to bring linen to lobby in order to get replacements, no coffee pot or coffee in room, pitiful breakfast choices, no hair dryer and had to request dishes.  Price was NOT a bargain either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r567578717-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>567578717</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Friendly staff but the place is dirty</t>
+  </si>
+  <si>
+    <t>Checked in and immediately I questioned my judgement from the front door. The lady at the counter was very nice and informative. The carpets down the halls had clumps of dirt, beer can in the stairwell. Got to my room. Fridge still had food in it from previous guest and the smell was funky. Again the counters were dirty with grease and the floor was sticky. If housekeeping can’t do floors, counters, or push a vacuum what makes me think the sheets have been changed?Seriously the place needs cleaned. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Checked in and immediately I questioned my judgement from the front door. The lady at the counter was very nice and informative. The carpets down the halls had clumps of dirt, beer can in the stairwell. Got to my room. Fridge still had food in it from previous guest and the smell was funky. Again the counters were dirty with grease and the floor was sticky. If housekeeping can’t do floors, counters, or push a vacuum what makes me think the sheets have been changed?Seriously the place needs cleaned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r571397084-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>571397084</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Stay away from Metairie La ESA Hotel</t>
+  </si>
+  <si>
+    <t>No hot water all week. Shower diverter broken. Microwave shorted out ruined food. Not very clean hallways. Had to boil water on stove to shave. Had to go to outside gym to shower. Desk clerks rude and indifferent to problems reported. Had to move twice to different rooms. Maintenance man negligently left door to room ajar all day while I was at work.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>No hot water all week. Shower diverter broken. Microwave shorted out ruined food. Not very clean hallways. Had to boil water on stove to shave. Had to go to outside gym to shower. Desk clerks rude and indifferent to problems reported. Had to move twice to different rooms. Maintenance man negligently left door to room ajar all day while I was at work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r558208486-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>558208486</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Amazing Place to Call Home</t>
+  </si>
+  <si>
+    <t>Friendly atmosphere.  Love the appearance not just from the outside; but from the inside as well. Room is clean.  inviting atmosphere.  Over all great experience and I highly recommend others to experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Friendly atmosphere.  Love the appearance not just from the outside; but from the inside as well. Room is clean.  inviting atmosphere.  Over all great experience and I highly recommend others to experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r553012008-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>553012008</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>EXCELLENT LOCATION</t>
+  </si>
+  <si>
+    <t>Two bedroomed apartment with attractive features and decoration. Nice and clean, Both rooms with en suite bathrooms. Heating during the cold snap worked well and the boiler was sufficently far from the bedrooms to not be an annoyance.Very grateful to the staff who let us into the apartment earlier than stated. Staff were very helpful and pleasant who arranged taxis to the airport and answered any queries.Good location for tourist activities. Tram car on Canal street takes you down to the water or in the other direction to City Park. Of course French quarter just on the other side of Canal street. The WWII museum is a 15 minute briskish walk and Rouses supermarket a convenient 5 minute walk away.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Two bedroomed apartment with attractive features and decoration. Nice and clean, Both rooms with en suite bathrooms. Heating during the cold snap worked well and the boiler was sufficently far from the bedrooms to not be an annoyance.Very grateful to the staff who let us into the apartment earlier than stated. Staff were very helpful and pleasant who arranged taxis to the airport and answered any queries.Good location for tourist activities. Tram car on Canal street takes you down to the water or in the other direction to City Park. Of course French quarter just on the other side of Canal street. The WWII museum is a 15 minute briskish walk and Rouses supermarket a convenient 5 minute walk away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r547124309-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>547124309</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>This was a last minute change due to another hotel that was not working right and I made a reservation and checked in and staff was great from the moment we came through the door. We are very happy for the staffMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>This was a last minute change due to another hotel that was not working right and I made a reservation and checked in and staff was great from the moment we came through the door. We are very happy for the staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r543941619-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>543941619</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Experience</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel. Special thanks to Ms.Lawanda, who made the stay feel like home away from home for me and my family. She had such a warm and caring heart. The room was clean,comfortable and very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel. Special thanks to Ms.Lawanda, who made the stay feel like home away from home for me and my family. She had such a warm and caring heart. The room was clean,comfortable and very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r542436590-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>542436590</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Recent visit to NOA</t>
+  </si>
+  <si>
+    <t>The room temp was great, front desk gal was personable. We needed a hairdryer and it was readily available at the front desk at a very early hour. Only issue was the length of time it took for the water to heat.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>The room temp was great, front desk gal was personable. We needed a hairdryer and it was readily available at the front desk at a very early hour. Only issue was the length of time it took for the water to heat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r536493029-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>536493029</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Pleasure trip</t>
+  </si>
+  <si>
+    <t>We visited New Orleans from October 13th to October 23rd. For all the 10 days we stayed at extended stay Metairie. We had a very pleasant stay. The location was very good. Our hotel was centrally located and was in very safe area. The rooms were clean and tidy. Cooking was also possible and everything needed for cooking ( utensils etc) was provided.The staff was very good. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded October 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2017</t>
+  </si>
+  <si>
+    <t>We visited New Orleans from October 13th to October 23rd. For all the 10 days we stayed at extended stay Metairie. We had a very pleasant stay. The location was very good. Our hotel was centrally located and was in very safe area. The rooms were clean and tidy. Cooking was also possible and everything needed for cooking ( utensils etc) was provided.The staff was very good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r531206827-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>531206827</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Do not go! Drug dealer</t>
+  </si>
+  <si>
+    <t>We were check in for 2 rooms with children. They ask you to sign a paper to not smoke in the rooms (we are all no smokers and athletes) and entering the rooms they were full of smoke and a smell of ... something else than cigarette. Going to front desk to mention it, the gentleman said:' Oh yes I know it smells marijuana!' .There was a lady with him that was looking lost. I mentioned that it is not acceptable and we cannot stay. The same lady called in the room while we were trying to find a better place, asking me in Spanish " when you leave the room, I need the room" She was pushing us out!!! Weird people were gathering in corridor with very strong smell. When I ask at the desk to talk to the manager on duty she said it was her! Incredible. I work in hospitality myself imagine my surprise. She didn't want to refund the rooms as I booked through expedia. THIS PLACE IS DANGEROUS AND FULL OF DRUG DEALERS. I HAVE WRITTEN TO CORPORATE AND THEY NEVER CAME BACK TO MEMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>We were check in for 2 rooms with children. They ask you to sign a paper to not smoke in the rooms (we are all no smokers and athletes) and entering the rooms they were full of smoke and a smell of ... something else than cigarette. Going to front desk to mention it, the gentleman said:' Oh yes I know it smells marijuana!' .There was a lady with him that was looking lost. I mentioned that it is not acceptable and we cannot stay. The same lady called in the room while we were trying to find a better place, asking me in Spanish " when you leave the room, I need the room" She was pushing us out!!! Weird people were gathering in corridor with very strong smell. When I ask at the desk to talk to the manager on duty she said it was her! Incredible. I work in hospitality myself imagine my surprise. She didn't want to refund the rooms as I booked through expedia. THIS PLACE IS DANGEROUS AND FULL OF DRUG DEALERS. I HAVE WRITTEN TO CORPORATE AND THEY NEVER CAME BACK TO MEMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r523242100-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>523242100</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>The manager is a very disrespectful man..</t>
+  </si>
+  <si>
+    <t>I want to complaint about the worst customer service that I have ever received... The name of the employee is Billy Mcfadden and he is believe it or not the general manager of the hotel. After a 20 hours drive from Miami to New Orleans because of hurricane irma, We just wanted to rest for the rest of the night... We checked in at 4:00am and we asked for at late check out since we were destroyed by the long drive.. we were told that we could leave by 12:00pm.. everything was fine until around 10:30 someone knocked on the door really hard.. I woke up and no one was on the door... by 11:00am this employee BILLY knocked at the door again very disrespectfully and practically yelled at my wife that the check out was at 11:00am.. and she tried to say that we asked for a late check out and then said you have until 12:00pm because I have 8 people waiting downstairs in a very disrespectful way.... when I went down, no one was there and I approached to the counter and asked who was this man and then he started yelling from his office that the check out was at 11:00...  and that I still had to pay for the pet policy... at that time I just asked the front desk girl for his name and left the place by 11:50am... after this I don't feel...I want to complaint about the worst customer service that I have ever received... The name of the employee is Billy Mcfadden and he is believe it or not the general manager of the hotel. After a 20 hours drive from Miami to New Orleans because of hurricane irma, We just wanted to rest for the rest of the night... We checked in at 4:00am and we asked for at late check out since we were destroyed by the long drive.. we were told that we could leave by 12:00pm.. everything was fine until around 10:30 someone knocked on the door really hard.. I woke up and no one was on the door... by 11:00am this employee BILLY knocked at the door again very disrespectfully and practically yelled at my wife that the check out was at 11:00am.. and she tried to say that we asked for a late check out and then said you have until 12:00pm because I have 8 people waiting downstairs in a very disrespectful way.... when I went down, no one was there and I approached to the counter and asked who was this man and then he started yelling from his office that the check out was at 11:00...  and that I still had to pay for the pet policy... at that time I just asked the front desk girl for his name and left the place by 11:50am... after this I don't feel like trying any other extended stay america hotels ever again.. this man shouldn't be the manager of any hotel. By the way, there is a Holiday Inn very close to the extended stay that looks really good. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>I want to complaint about the worst customer service that I have ever received... The name of the employee is Billy Mcfadden and he is believe it or not the general manager of the hotel. After a 20 hours drive from Miami to New Orleans because of hurricane irma, We just wanted to rest for the rest of the night... We checked in at 4:00am and we asked for at late check out since we were destroyed by the long drive.. we were told that we could leave by 12:00pm.. everything was fine until around 10:30 someone knocked on the door really hard.. I woke up and no one was on the door... by 11:00am this employee BILLY knocked at the door again very disrespectfully and practically yelled at my wife that the check out was at 11:00am.. and she tried to say that we asked for a late check out and then said you have until 12:00pm because I have 8 people waiting downstairs in a very disrespectful way.... when I went down, no one was there and I approached to the counter and asked who was this man and then he started yelling from his office that the check out was at 11:00...  and that I still had to pay for the pet policy... at that time I just asked the front desk girl for his name and left the place by 11:50am... after this I don't feel...I want to complaint about the worst customer service that I have ever received... The name of the employee is Billy Mcfadden and he is believe it or not the general manager of the hotel. After a 20 hours drive from Miami to New Orleans because of hurricane irma, We just wanted to rest for the rest of the night... We checked in at 4:00am and we asked for at late check out since we were destroyed by the long drive.. we were told that we could leave by 12:00pm.. everything was fine until around 10:30 someone knocked on the door really hard.. I woke up and no one was on the door... by 11:00am this employee BILLY knocked at the door again very disrespectfully and practically yelled at my wife that the check out was at 11:00am.. and she tried to say that we asked for a late check out and then said you have until 12:00pm because I have 8 people waiting downstairs in a very disrespectful way.... when I went down, no one was there and I approached to the counter and asked who was this man and then he started yelling from his office that the check out was at 11:00...  and that I still had to pay for the pet policy... at that time I just asked the front desk girl for his name and left the place by 11:50am... after this I don't feel like trying any other extended stay america hotels ever again.. this man shouldn't be the manager of any hotel. By the way, there is a Holiday Inn very close to the extended stay that looks really good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r521421152-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>521421152</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Staff at this hotel needs more training.</t>
+  </si>
+  <si>
+    <t>The Manager a male was the rudest person I have ever encountered in my 40 years plus of professional travel. I would fire him at the drop of a dime before I allowed him to ruin my business. I am a retired Travel Manager and I look for points of interest in travel destinations.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>The Manager a male was the rudest person I have ever encountered in my 40 years plus of professional travel. I would fire him at the drop of a dime before I allowed him to ruin my business. I am a retired Travel Manager and I look for points of interest in travel destinations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r515145407-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>515145407</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Friendly and Professional Staff</t>
+  </si>
+  <si>
+    <t>Billy - GM, Amber, Angela, Bridget, Pam and John are a remarkable team who are connected and committed to providing excellent customer service. I was treated me more like family and less like a guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded August 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2017</t>
+  </si>
+  <si>
+    <t>Billy - GM, Amber, Angela, Bridget, Pam and John are a remarkable team who are connected and committed to providing excellent customer service. I was treated me more like family and less like a guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r500063311-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>500063311</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>BED BUGS</t>
+  </si>
+  <si>
+    <t>BED BUGS! I thought bed bugs could not be seen with the naked eye. I was wrong. I saw them in my bed. Once you walk in the place looks decent for the $67 fee. I took a nap on my bad with the lights on and I just happened to wake up and saw bed bugs. I'm glad the light was on so I could see them. I ended up sleeping uncomfortable on the couch.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>BED BUGS! I thought bed bugs could not be seen with the naked eye. I was wrong. I saw them in my bed. Once you walk in the place looks decent for the $67 fee. I took a nap on my bad with the lights on and I just happened to wake up and saw bed bugs. I'm glad the light was on so I could see them. I ended up sleeping uncomfortable on the couch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r499287421-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>499287421</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>If you don't want to be in downtown this hotel is very good option. Room was very clean and spacious and the hotel itself wasn't that far from the downtown...maybe some 15 minutes drive and I caught peak hour..so not bad at all. I mean, please have in mind that this is Extended Stay America and not Hilton, but for that price it was a great place to stay. I even thought that I left something behind in the hotel, the girl I called was very kind and understanding and she really wanted to help. Luckily, I found what I was looking for in my purse, but I really liked the way they hotel staff was willing to help. And of course, it is dog friendly what for me was very important.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2017</t>
+  </si>
+  <si>
+    <t>If you don't want to be in downtown this hotel is very good option. Room was very clean and spacious and the hotel itself wasn't that far from the downtown...maybe some 15 minutes drive and I caught peak hour..so not bad at all. I mean, please have in mind that this is Extended Stay America and not Hilton, but for that price it was a great place to stay. I even thought that I left something behind in the hotel, the girl I called was very kind and understanding and she really wanted to help. Luckily, I found what I was looking for in my purse, but I really liked the way they hotel staff was willing to help. And of course, it is dog friendly what for me was very important.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r498565185-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>498565185</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>They had roaches</t>
+  </si>
+  <si>
+    <t>Front Office Staff is outstanding but every other outlet is horrible. They start construction at 7 AM on Saturdays, housekeepers have horrible attitudes when you ask for towels or toiletries and they have roachesMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Front Office Staff is outstanding but every other outlet is horrible. They start construction at 7 AM on Saturdays, housekeepers have horrible attitudes when you ask for towels or toiletries and they have roachesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r497461891-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>497461891</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>NOLA</t>
+  </si>
+  <si>
+    <t>Good stay...we had an excellent time...NOLA is such a fun place..don't be afraid to go there...my reason for being there was a joyous occasion...Cousin is staying there hoping for a liver transplant..she will die otherwise and I am thankful to be able to visit with her and family while savi!g money because I stayed here...MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded July 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2017</t>
+  </si>
+  <si>
+    <t>Good stay...we had an excellent time...NOLA is such a fun place..don't be afraid to go there...my reason for being there was a joyous occasion...Cousin is staying there hoping for a liver transplant..she will die otherwise and I am thankful to be able to visit with her and family while savi!g money because I stayed here...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r497310084-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>497310084</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Fire!!!</t>
+  </si>
+  <si>
+    <t>This hotel is mediocre at best. Somewhere to lay your head until the next day. They have a kitchen but it's very small. The refrigerator takes up most of the space. They have one cart downstairs to bring up your belongings and it's very outdated. It's also very heavy and hard to push. It would be nice if they had someone downstairs to help you with your bags. To top it off they had a fire a few doors down from us. It was an electrical fire and no one was harmed but we had to wait outside for an hour and half while the fire department cleared everything. This hotel never offered any accommodations for such a startling experience. I'm glad we are only staying for one night because I don't feel safe. I might now get any sleep tonight. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is mediocre at best. Somewhere to lay your head until the next day. They have a kitchen but it's very small. The refrigerator takes up most of the space. They have one cart downstairs to bring up your belongings and it's very outdated. It's also very heavy and hard to push. It would be nice if they had someone downstairs to help you with your bags. To top it off they had a fire a few doors down from us. It was an electrical fire and no one was harmed but we had to wait outside for an hour and half while the fire department cleared everything. This hotel never offered any accommodations for such a startling experience. I'm glad we are only staying for one night because I don't feel safe. I might now get any sleep tonight. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r494533779-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>494533779</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay while in New Orleans</t>
+  </si>
+  <si>
+    <t>Great place to stay. Eat in (cooked blue crabs bought from the seafood market in Westwego) ... quiet so you can recover from a night on Bourbon Street.. staff was responsive to all our needs.. dishes and silverware were available, so no paper plates and plastic forks.. A/C was cold, room stayed comfortable and temp was easily adjusted MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Great place to stay. Eat in (cooked blue crabs bought from the seafood market in Westwego) ... quiet so you can recover from a night on Bourbon Street.. staff was responsive to all our needs.. dishes and silverware were available, so no paper plates and plastic forks.. A/C was cold, room stayed comfortable and temp was easily adjusted More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r493001187-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>493001187</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Very goood for short stay</t>
+  </si>
+  <si>
+    <t>Very good for a short stay. Location convenient. Room small but had everything I needed. Wifi wasn't working but it was repaired really fast. Breakfast as expected - just snacks, but that what I was told at the check in any way.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Very good for a short stay. Location convenient. Room small but had everything I needed. Wifi wasn't working but it was repaired really fast. Breakfast as expected - just snacks, but that what I was told at the check in any way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r490666256-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>490666256</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Athletics  Weekend</t>
+  </si>
+  <si>
+    <t>In New Orleans for Athletic Events for my son. This hotel was center location point for the various event locations.  It is also close to mall shopping area and many restaurants. Utilized the 2 full bedMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>In New Orleans for Athletic Events for my son. This hotel was center location point for the various event locations.  It is also close to mall shopping area and many restaurants. Utilized the 2 full bedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r488753499-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>488753499</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>worth 20.00 more to stay elsewhere!</t>
+  </si>
+  <si>
+    <t>Bathroom was dirty, stayed 2 night for 4 people, room only had 2 wash cloths, nobody changes or brought new ones in for the next night. walked in to a hot room. no  swimming pool, took that for grantedMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Bathroom was dirty, stayed 2 night for 4 people, room only had 2 wash cloths, nobody changes or brought new ones in for the next night. walked in to a hot room. no  swimming pool, took that for grantedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r486407607-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>486407607</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Clean Budget Rooms</t>
+  </si>
+  <si>
+    <t>Looks like it was recently updated. Staff was very helpful. Nice for a budget hotel. The handicapped room does have a built-in shower seat. I would definitely stay here again! Close to the airport and other points of interest.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Looks like it was recently updated. Staff was very helpful. Nice for a budget hotel. The handicapped room does have a built-in shower seat. I would definitely stay here again! Close to the airport and other points of interest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r474385718-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>474385718</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Unclean room roaches</t>
+  </si>
+  <si>
+    <t>I arrived for check in early a plus was allowed to check in told my room was ready went to my room after paying  380 found the room had not yet been cleaned alothugh i was told it was.. management apologised and gave me a new room cool.. went to the second room not 5minutes in i used the restroom after a long car ride and right on side of me was a roach crawling.. i had enough so glad i didn't bring my things into the room. asked to be refuned my money had to wait a week to get it back but took 5 sec to take it i'm never staying at this hotel againMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>I arrived for check in early a plus was allowed to check in told my room was ready went to my room after paying  380 found the room had not yet been cleaned alothugh i was told it was.. management apologised and gave me a new room cool.. went to the second room not 5minutes in i used the restroom after a long car ride and right on side of me was a roach crawling.. i had enough so glad i didn't bring my things into the room. asked to be refuned my money had to wait a week to get it back but took 5 sec to take it i'm never staying at this hotel againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r466659391-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>466659391</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Would return</t>
+  </si>
+  <si>
+    <t>In town for just the weekend and this was one of the more reasonable hotels we could find. It was a great location for the activities we had planned-wedding at Audubon Park,lots of eating out around town, and old home places to find. No problems getting around at all. The staff were friendly and more than helpful.  Thank you, Lawanda, for checking our room one more time after a report we had left items in the room. A step above and beyond!  The only concern was lack of hot water; it took a long time to get warm water. I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>In town for just the weekend and this was one of the more reasonable hotels we could find. It was a great location for the activities we had planned-wedding at Audubon Park,lots of eating out around town, and old home places to find. No problems getting around at all. The staff were friendly and more than helpful.  Thank you, Lawanda, for checking our room one more time after a report we had left items in the room. A step above and beyond!  The only concern was lack of hot water; it took a long time to get warm water. I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r452451895-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>452451895</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Decent stay overall.</t>
+  </si>
+  <si>
+    <t>This is an older hotel and it's quite evident from the wear and tear in the place.  However I didn't encounter anything that didn't work.  Pros:  I liked the free parking.Cons:  No coffee in the room, breakfast was minimal at best. Overall:  The personnel were friendly and competent from the interaction I had with them.  My biggest concern was the overall age and condition of the place, it could use a makeover.  I wouldn't warn anyone away from it but I'll probably try a different place next time just because I like to try different places anyway.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r443678213-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>443678213</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>HOME AWAY FROM HOME</t>
+  </si>
+  <si>
+    <t>HOME AWAY FROM HOMETHIS PLACE IS CLEAN, CONVENIENT AND COST REASONABLE! Has almost everything you have at home to make your stay comfortable.  Besides the comfortable bed and bath, there is a good sized kitchen with a full sized refrigerator.Tell them at check in and you will be furnished all the dishes, cooking utensils and everything you need to prepare your own meals.  You can eat out or you can make your  meals in your room.  And there is almost always a washer and dryer nearby for about half what it costs to go to a commercial do it yourself laundry.  Really nice when you are at a convention for several days and want to fix your own breakfast and maybe lunch!  We stayed at EXTENDED STAY AMERICA  for a week and once for 10 days!  Also there are elevators to the upper floors. The only "downer" is that the complementary breakfast is a "continental" breakfast of instant or cold cereal, prepackaged rolls, muffins or donuts and energy bars with free coffee, tea and juice, but when you stay here you have your own kitchen in your room and can shop for wholesome juice and groceries of your own choice!.You can join their "club" plan and get emails with discounts on top of  their already reasonable rates!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>HOME AWAY FROM HOMETHIS PLACE IS CLEAN, CONVENIENT AND COST REASONABLE! Has almost everything you have at home to make your stay comfortable.  Besides the comfortable bed and bath, there is a good sized kitchen with a full sized refrigerator.Tell them at check in and you will be furnished all the dishes, cooking utensils and everything you need to prepare your own meals.  You can eat out or you can make your  meals in your room.  And there is almost always a washer and dryer nearby for about half what it costs to go to a commercial do it yourself laundry.  Really nice when you are at a convention for several days and want to fix your own breakfast and maybe lunch!  We stayed at EXTENDED STAY AMERICA  for a week and once for 10 days!  Also there are elevators to the upper floors. The only "downer" is that the complementary breakfast is a "continental" breakfast of instant or cold cereal, prepackaged rolls, muffins or donuts and energy bars with free coffee, tea and juice, but when you stay here you have your own kitchen in your room and can shop for wholesome juice and groceries of your own choice!.You can join their "club" plan and get emails with discounts on top of  their already reasonable rates!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r439942452-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>439942452</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>My experience was excellent. The Mgrs. and staff were great. Always willing to help and comply with any minor issues that may occur. I stayed there 237 days and will stay there again. The Hotel is very close to shops and restaurants and downtown NOLA.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>My experience was excellent. The Mgrs. and staff were great. Always willing to help and comply with any minor issues that may occur. I stayed there 237 days and will stay there again. The Hotel is very close to shops and restaurants and downtown NOLA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r429272234-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>429272234</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Appalling</t>
+  </si>
+  <si>
+    <t>Stayed in late September. Nonworking toilets. Switched rooms. No better. Lock did not work on the door. No hot water.Was given a full 2 day refund for future trip.Came back 3 weeks later for another Saints game. No hot water. Toilet overflowed within minutes. Nice people. Horrible facility. Property is uninhabitable. Offered another free stay. Turned them down. Would rather pay to sleep in peace</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r425977637-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>425977637</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Not as disgusting as their other NOLA location</t>
+  </si>
+  <si>
+    <t>The ESA by the airport is absolutely disgusting.  Smoke smell everywhere, dirty floors, etc.  So i was very pleased to find that this location does not allow smoking anywhere in the hotel.  Staff was friendly and the rooms clean.  However, there is barely any hot water and the internet service is terrible.  The site tries to milk more money out of you by asking you to pay for regular first-world speed internet.  So don't expect to get much work done.  Other than that, this place isn't bad at all</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r423189744-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>423189744</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>A Great Stay for Displaced Disaster.</t>
+  </si>
+  <si>
+    <t>Upon our arrival,the kitchen dishes and utensils were missing and had to request for delivery according to the place card. But, the front desk said we had to pick it up. Moreover, a hairdryer was neither included nor available in our room. Also,  housekeeping as well as trash pick up were included in the service. We had to take out our own trash downstairs, pick up extra towels or toilet papers.The hallway, room, and bathroom had musty odor. The mattress was uncomfortable and a high chair is used for dining table in the room.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r399982501-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>399982501</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Poor Quality and Quality</t>
+  </si>
+  <si>
+    <t>Poor Service and Quality for a hotel. No housekeeping service available. No coffee pot in the room. No coffee cups or glasses available in the room. Pathetic as to what they call a breakfast. They put out about 2 dozen fruit bars and call that breakfast, and when it is gone that is the end of the breakfast.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r396311723-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>396311723</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay for extended business trips.</t>
+  </si>
+  <si>
+    <t>I've stayed here often over the last four years while working in the New Orleans area. Usually my stays are from 3 - 6 months at a time. It's not the Ritz Carlton or the Roosevelt but The hotel is quiet, comfortable, very clean and most importantly extremely safe. I've never had a problem. It's in a great area and only a short drive, cab or Uber ride into downtown New Orleans, the French quarter and all the touristy stuff. There's a large, well lit parking lot and some really good restaurants that deliver here.The hotel staff are fantastic and will go out of their way to help you feel like your at home away from home. Housekeeping is only once a week but can be more often or daily for an extra fee. You'll notice a lot of commercial, business vehicles with company logos (pickups, vans) in the lot which proves my point. This is good choice for those of us who need a quiet, safe place to get a great nights rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed here often over the last four years while working in the New Orleans area. Usually my stays are from 3 - 6 months at a time. It's not the Ritz Carlton or the Roosevelt but The hotel is quiet, comfortable, very clean and most importantly extremely safe. I've never had a problem. It's in a great area and only a short drive, cab or Uber ride into downtown New Orleans, the French quarter and all the touristy stuff. There's a large, well lit parking lot and some really good restaurants that deliver here.The hotel staff are fantastic and will go out of their way to help you feel like your at home away from home. Housekeeping is only once a week but can be more often or daily for an extra fee. You'll notice a lot of commercial, business vehicles with company logos (pickups, vans) in the lot which proves my point. This is good choice for those of us who need a quiet, safe place to get a great nights rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r387056036-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>387056036</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Reasonably good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The living space was decently sized. The room was not spotlessly clean and no kitchen equipment was provided. The breakfast was on the run type of food but decent. Nothing except I hop in the area. Staff helpful but not always available and also not very knowledgeable of the area or of the services that the city provides. On the whole a wonderful visit as new Orleans never disappoints </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r384137824-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>384137824</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed her during our week vacation in Feb. It is close enough to the heart of New Orleans for party but far enough to get some rest and relaxation. The staff is very helpful with helping you find things to do off the beaten path. The room was clean and comfortable and everything you need for cooking is available. The only downside is taking your towels to the front seat for fresh ones daily.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed her during our week vacation in Feb. It is close enough to the heart of New Orleans for party but far enough to get some rest and relaxation. The staff is very helpful with helping you find things to do off the beaten path. The room was clean and comfortable and everything you need for cooking is available. The only downside is taking your towels to the front seat for fresh ones daily.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r383678708-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>383678708</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel and staff, terrible housekeeping!</t>
+  </si>
+  <si>
+    <t>I booked this hotel on our recent visit to New Orleans with my daughter and two young granddaughters. When we first arrived, we liked the appearance of the hotel and loved the friendliness of the front desk clerk. It was all very pleasant. We were given our room even though we arrived early and we felt great about the whole registration experience.
+When we opened the door to our room we noticed that the room didn't look clean. The kitchen cabinets were dirty the bathtub had soap scum and there was a used soap bar left on the soap dish. I was looking at all this when my granddaughter saw hair all over the pillows! The beds hadn't been done changed! I immediately called the front desk and they apologized and moved us to a different room. When we arrived at the new room the feeling was the same. That room wasn't cleaned either! My daughter checked the beds and there were nasty stains on the mattress that you could see through the sheets!! I was just so repulsed that I wouldn't let my granddaughters get near them. I called the front desk again and asked them to come and check the room and to cancel our reservation and refund my money. They came up and inspected the beds and bathrooms, apologized and refunded our money. We got out of there as fast as we could and would not recommend...I booked this hotel on our recent visit to New Orleans with my daughter and two young granddaughters. When we first arrived, we liked the appearance of the hotel and loved the friendliness of the front desk clerk. It was all very pleasant. We were given our room even though we arrived early and we felt great about the whole registration experience.When we opened the door to our room we noticed that the room didn't look clean. The kitchen cabinets were dirty the bathtub had soap scum and there was a used soap bar left on the soap dish. I was looking at all this when my granddaughter saw hair all over the pillows! The beds hadn't been done changed! I immediately called the front desk and they apologized and moved us to a different room. When we arrived at the new room the feeling was the same. That room wasn't cleaned either! My daughter checked the beds and there were nasty stains on the mattress that you could see through the sheets!! I was just so repulsed that I wouldn't let my granddaughters get near them. I called the front desk again and asked them to come and check the room and to cancel our reservation and refund my money. They came up and inspected the beds and bathrooms, apologized and refunded our money. We got out of there as fast as we could and would not recommend this hotel to anybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel on our recent visit to New Orleans with my daughter and two young granddaughters. When we first arrived, we liked the appearance of the hotel and loved the friendliness of the front desk clerk. It was all very pleasant. We were given our room even though we arrived early and we felt great about the whole registration experience.
+When we opened the door to our room we noticed that the room didn't look clean. The kitchen cabinets were dirty the bathtub had soap scum and there was a used soap bar left on the soap dish. I was looking at all this when my granddaughter saw hair all over the pillows! The beds hadn't been done changed! I immediately called the front desk and they apologized and moved us to a different room. When we arrived at the new room the feeling was the same. That room wasn't cleaned either! My daughter checked the beds and there were nasty stains on the mattress that you could see through the sheets!! I was just so repulsed that I wouldn't let my granddaughters get near them. I called the front desk again and asked them to come and check the room and to cancel our reservation and refund my money. They came up and inspected the beds and bathrooms, apologized and refunded our money. We got out of there as fast as we could and would not recommend...I booked this hotel on our recent visit to New Orleans with my daughter and two young granddaughters. When we first arrived, we liked the appearance of the hotel and loved the friendliness of the front desk clerk. It was all very pleasant. We were given our room even though we arrived early and we felt great about the whole registration experience.When we opened the door to our room we noticed that the room didn't look clean. The kitchen cabinets were dirty the bathtub had soap scum and there was a used soap bar left on the soap dish. I was looking at all this when my granddaughter saw hair all over the pillows! The beds hadn't been done changed! I immediately called the front desk and they apologized and moved us to a different room. When we arrived at the new room the feeling was the same. That room wasn't cleaned either! My daughter checked the beds and there were nasty stains on the mattress that you could see through the sheets!! I was just so repulsed that I wouldn't let my granddaughters get near them. I called the front desk again and asked them to come and check the room and to cancel our reservation and refund my money. They came up and inspected the beds and bathrooms, apologized and refunded our money. We got out of there as fast as we could and would not recommend this hotel to anybody.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r378791608-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>378791608</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasantly Surprised </t>
+  </si>
+  <si>
+    <t>This hotel was nice from the inside/out. And very inviting.  The most comfortable mattress ever!  Lawanda and Bridget were ROCKSTARS!  Their customer service was AMAZING!  The room was quite spacious.  With 2 double beds.  The kitchen was a little small but what you'd expect with any hotel.  There was a regular sized refrigerator with freezer and microwave.  2 electric burners.   And had enough electrical outlets for any women to use.  I'm not sure what the tub is made out of but I loved it.  It was a little small for my hips but it worked.  It was slip resistant which was genius.  The snack and go breakfast was great.  You just had to get there EARLY or you missed the really good stuff.  My experience at the Extended Stay Hotel Metarie, La was Great!  I would definitely visit again and have already recommended it to people. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was nice from the inside/out. And very inviting.  The most comfortable mattress ever!  Lawanda and Bridget were ROCKSTARS!  Their customer service was AMAZING!  The room was quite spacious.  With 2 double beds.  The kitchen was a little small but what you'd expect with any hotel.  There was a regular sized refrigerator with freezer and microwave.  2 electric burners.   And had enough electrical outlets for any women to use.  I'm not sure what the tub is made out of but I loved it.  It was a little small for my hips but it worked.  It was slip resistant which was genius.  The snack and go breakfast was great.  You just had to get there EARLY or you missed the really good stuff.  My experience at the Extended Stay Hotel Metarie, La was Great!  I would definitely visit again and have already recommended it to people. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r375111336-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>375111336</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>It is what it is</t>
+  </si>
+  <si>
+    <t>I have been here for 3 months and I have had some great moments and some pretty bad experiences. The front desk staff is great to me. Always quick with a positive greeting and they are happy to get me what I need. It helps if you get to know them and treat them with a little respect .My biggest concern would be the cleaning staff. As soon as I open my door I know if the good maid did my room that week. If not I'm screwed. Nothing cleaned, just new towels. The bed doesn't even get changed. I'm not asking for the world here! I straighten the room and take out the trash before they come. Overall, it's not a bad place. Nice room and a clean , well kept property. MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been here for 3 months and I have had some great moments and some pretty bad experiences. The front desk staff is great to me. Always quick with a positive greeting and they are happy to get me what I need. It helps if you get to know them and treat them with a little respect .My biggest concern would be the cleaning staff. As soon as I open my door I know if the good maid did my room that week. If not I'm screwed. Nothing cleaned, just new towels. The bed doesn't even get changed. I'm not asking for the world here! I straighten the room and take out the trash before they come. Overall, it's not a bad place. Nice room and a clean , well kept property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r374676787-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>374676787</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Pleasant</t>
+  </si>
+  <si>
+    <t>The rooms were pleasant, spacious and clean.  Staff at check-in were efficient and helpful.  There is a full kitchen.   Breakfast was grab and go which is very basic.  The drive to downtown was not too far.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r363457280-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>363457280</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Could be good!</t>
+  </si>
+  <si>
+    <t>In my opinion there are some basics that a hotel has to have before the frills.Cleanliness    Without this you can never feel comfortable in a room.  This hotel was extremely lacking.  Mold growing in the toilet and shower corners.  My feet got so dirty walking in the room that I had to wear socks all of the time.  There were stains in strange places...fridge, light switches, walls, lamp shades....etc.Comfortable bed    This bed was by far the worst bed I have slept in for as far as I remember... strange lumps and hard as a rock.  2 nites and very little sleep.The location we found to be very good...anything is close.Their breakfast is coffee, 3 types of muffin, apples or bananas, and oatmeal.Good TV, cold AC, staff good.I wish It would have been better.Did not use wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>In my opinion there are some basics that a hotel has to have before the frills.Cleanliness    Without this you can never feel comfortable in a room.  This hotel was extremely lacking.  Mold growing in the toilet and shower corners.  My feet got so dirty walking in the room that I had to wear socks all of the time.  There were stains in strange places...fridge, light switches, walls, lamp shades....etc.Comfortable bed    This bed was by far the worst bed I have slept in for as far as I remember... strange lumps and hard as a rock.  2 nites and very little sleep.The location we found to be very good...anything is close.Their breakfast is coffee, 3 types of muffin, apples or bananas, and oatmeal.Good TV, cold AC, staff good.I wish It would have been better.Did not use wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r360481802-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>360481802</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Overnight prior to a cruise</t>
+  </si>
+  <si>
+    <t>This place was just okay. I was prepared for this because it was less expensive than other hotels in Metairie. We stayed there overnight prior to our cruise and it was fine for that purpose. I wouldn't want to stay there if we had been vacationing in New Orleans for several days even if we were staying in Metairie. The neighborhood around it was kind of rundown. The whole place seemed out of date but it was clean. They were out of hair dryers because they were "all booked up" which I thought was strange.I will give a shout out to Ramanda though. She was working the front desk and was extremely friendly and welcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>This place was just okay. I was prepared for this because it was less expensive than other hotels in Metairie. We stayed there overnight prior to our cruise and it was fine for that purpose. I wouldn't want to stay there if we had been vacationing in New Orleans for several days even if we were staying in Metairie. The neighborhood around it was kind of rundown. The whole place seemed out of date but it was clean. They were out of hair dryers because they were "all booked up" which I thought was strange.I will give a shout out to Ramanda though. She was working the front desk and was extremely friendly and welcoming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r356830668-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>356830668</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Probably other hotels in the area with a better value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The location is, at best OK. The room, while large could use a good cleaning. I checked the bed sheets to make sure they were freshly laundered.  (They were).OK, place to spend a night, but I wouldn't use this hotel for an extended stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r354409812-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>354409812</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Terrible Experience</t>
+  </si>
+  <si>
+    <t>I NEVER write bad reviews, but I have stayed here twice now for business and had terrible experiences both times.  I will not be returning.  We ran into several issues (toilets not working, bugs in rooms, doors not locking) and the staff was very rude when the issues were brought up!  I was hung up on and still no maintenance person ever showed up.  The rooms were dirty- hairs, dust, a roach, etc.  I do not recommend!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r340041832-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>340041832</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay for economy hotel</t>
+  </si>
+  <si>
+    <t>We have stayed at Extended stays before and I haven't really been to impressed.  But this Hotel was an exception.  It was very nice.  It seemed like it was newly updated.  We  had an excellent nights rest for an inexpensive stay.  Would stay here again.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r335935687-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>335935687</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Hotel </t>
+  </si>
+  <si>
+    <t>Upon arrival I wasn't expecting much of nothing base on the reviews. But I still decided to stay, I was shock the waiting area was clean, front desk lady that check me in was ok but the hotel was awesome. My room was the best everything was perfect, sheets clean, bathroom clean, bed comfortable, kitchen clean everything was in perfect order. Mrs Mandy was the person to check me out (great personality) she was prompt, had a smile on her face and told me what to expect on my card as a refund (I had a coupon code) She ask how was my stay, at breakfast time she ask was there something she can get if they didn't have it out she really made me feel they as though they value my business's. I'll be back to stay at this hotel. Thanks sooooo much Mrs Mandy I'm glad I came and Thanks for being friendly and professional. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Upon arrival I wasn't expecting much of nothing base on the reviews. But I still decided to stay, I was shock the waiting area was clean, front desk lady that check me in was ok but the hotel was awesome. My room was the best everything was perfect, sheets clean, bathroom clean, bed comfortable, kitchen clean everything was in perfect order. Mrs Mandy was the person to check me out (great personality) she was prompt, had a smile on her face and told me what to expect on my card as a refund (I had a coupon code) She ask how was my stay, at breakfast time she ask was there something she can get if they didn't have it out she really made me feel they as though they value my business's. I'll be back to stay at this hotel. Thanks sooooo much Mrs Mandy I'm glad I came and Thanks for being friendly and professional. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r332760981-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>332760981</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel with some issues</t>
+  </si>
+  <si>
+    <t>We have always been a frequent users of extended stay and have stayed in hotels in many cities. This extended stay was the right distance away from the downtown of new Orleans and the location and pricing were good, which made us book this place. The hotel staff at reception were nice and friendly, but when we opened the room for which we had the keys, the bed was not done and had stains on it. We had to again go down to lobby with all our luggage to get another room. This time, the room was good. Another problem we faced was that the lift smelled of cigarette smoke. We mentioned this to the receptionist who mentioned that it is a non smoking property and assured that they will use a room freshener to clear the smell. On the plus side, the location has ample parking and is closed to the highways and at driving distance to downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have always been a frequent users of extended stay and have stayed in hotels in many cities. This extended stay was the right distance away from the downtown of new Orleans and the location and pricing were good, which made us book this place. The hotel staff at reception were nice and friendly, but when we opened the room for which we had the keys, the bed was not done and had stains on it. We had to again go down to lobby with all our luggage to get another room. This time, the room was good. Another problem we faced was that the lift smelled of cigarette smoke. We mentioned this to the receptionist who mentioned that it is a non smoking property and assured that they will use a room freshener to clear the smell. On the plus side, the location has ample parking and is closed to the highways and at driving distance to downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r309570733-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>309570733</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Okay stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was fine for one night. Check-in was a pain because the front desk girl didn't know how to do check-in for my 3rd party booking or the check out for a direct bill guy in front of me. That was a 15-20min ordeal. Other than that it was fine for the night. Wifi was good. Fridge wasn't clean but I didn't use it. I always forget at extended stay you have to request a coffee pot or get coffee in the lobby. I just waited until after checkout and got coffee elsewhere. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r303546483-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>303546483</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>If you value your safety you'll stay elsewhere!!</t>
+  </si>
+  <si>
+    <t>We checked into this room for one night to celebrate my birthday. We chose this room because my guy and I knew we would be out on the town the majority of the night, so there would be no need for an expensive room. I could not have made a bigger mistake than this! Upon check in the attendant was busy eating pizza when she give us cards to SOMEONE ELSE'S ROOM! We opened the door unknowingly and a huge guy yelled "who tha *bleep* is that" wanting to know who was entering his room. Needless to say we were not happy when we reached the lobby. The attendant stood there and kept saying "Wooooow" as if she were not the one who give the keys to us to start. In and around New orleans is not the place to walk in on people and I felt this jeopardized our safety. Trash on the outside in the parking lot still there the next morning. Do yourself a favor and bypass this dump even if you are in town to party the majority of the nightMoreShow less</t>
+  </si>
+  <si>
+    <t>We checked into this room for one night to celebrate my birthday. We chose this room because my guy and I knew we would be out on the town the majority of the night, so there would be no need for an expensive room. I could not have made a bigger mistake than this! Upon check in the attendant was busy eating pizza when she give us cards to SOMEONE ELSE'S ROOM! We opened the door unknowingly and a huge guy yelled "who tha *bleep* is that" wanting to know who was entering his room. Needless to say we were not happy when we reached the lobby. The attendant stood there and kept saying "Wooooow" as if she were not the one who give the keys to us to start. In and around New orleans is not the place to walk in on people and I felt this jeopardized our safety. Trash on the outside in the parking lot still there the next morning. Do yourself a favor and bypass this dump even if you are in town to party the majority of the nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r291899990-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>291899990</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>We had to stay here during Jazz Fest because nothing else was available.  The room was dingy.  The bedspread stained, carpets dirty and fridge did not work.  Staff were very nice though.  Continental breakfast was only snacks.  Not enough blow dryers to put in every room...I did not get one.  I would not recommend this hotel.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r286213036-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>286213036</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>1st trip to nola</t>
+  </si>
+  <si>
+    <t>Everything you need in your home away from home staff great guest great didn't want to leave came for 2015 essences fest was having such a great time at the hotel didn't want to leave to go to the show</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r264052810-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>264052810</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>Room smelled horrible and it was dirty.Towels old and dirty. Hotwire.com compared the place to Comfort Inn, I have stayed at Comfort Inn and there's a huge difference between the two. Breakfast was mini muffins and that's it. Horrible place. Never staying there again.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r261951465-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>261951465</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Stay well away from this expensive dump of a room!</t>
+  </si>
+  <si>
+    <t>Stayed here one night last Friday after flying in from UK for family event next day.  Just needed a place to sleep really after long day of travel but I was shocked at the overall prices of the hotels in Metairie/Kenner area.  This hotel had decent reviews so I forked out £92 (GBP) for the room - supposedly a bargain on lastminute.com and marked down from £116 - accepting that all hotel rooms in New Orleans are expensive (by the way I'm a N.O. ex-pat who has been living in the UK for 20 years, so am still a frequent traveller to the area, although usually to the French Quarter/Garden District area).
+So...what a dump this room was!!  The room had 2 very small double beds, a kitchenette and bathroom.  It was dirty, full-stop: sticky stain on kitchen counter; dirt/gravel on kitchen floor pushed up against the walls (see photos); microwave was stained and greasy and smelled like old popcorn.  
+The smoke alarm was hanging rather attractively from the ceiling - although still attached who knows if it was working.  The ironing board that we needed to iron clothes on the next morning we discovered had a huge gash in the cover.  How long had it been like that??  When we rang reception for another one, it arrived with a broken stand so husband had to wedge it under the kitchen counter to keep it from collapsing!
+Lastly the "grab...Stayed here one night last Friday after flying in from UK for family event next day.  Just needed a place to sleep really after long day of travel but I was shocked at the overall prices of the hotels in Metairie/Kenner area.  This hotel had decent reviews so I forked out £92 (GBP) for the room - supposedly a bargain on lastminute.com and marked down from £116 - accepting that all hotel rooms in New Orleans are expensive (by the way I'm a N.O. ex-pat who has been living in the UK for 20 years, so am still a frequent traveller to the area, although usually to the French Quarter/Garden District area).So...what a dump this room was!!  The room had 2 very small double beds, a kitchenette and bathroom.  It was dirty, full-stop: sticky stain on kitchen counter; dirt/gravel on kitchen floor pushed up against the walls (see photos); microwave was stained and greasy and smelled like old popcorn.  The smoke alarm was hanging rather attractively from the ceiling - although still attached who knows if it was working.  The ironing board that we needed to iron clothes on the next morning we discovered had a huge gash in the cover.  How long had it been like that??  When we rang reception for another one, it arrived with a broken stand so husband had to wedge it under the kitchen counter to keep it from collapsing!Lastly the "grab and go" breakfast next morning was terrible: vending-machine quality wrapped muffins (who knows how many chemicals to be found inside), bad coffee with chemical fake powdered creamer (no milk/real cream whatsoever), a dried out orange and a few cereal bars, the last 3 of which we managed to grab (note, although our breakfast was "grabbed" at 6:45AM we were lucky to get the last few bits out, although it was later re-stocked when we checked out at 8AM, we noticed).The only reason I've not given the hotel 1 star is due to the friendly staff, especially the receptionist who was on duty late when we arrived (9pm) and there again in the morning when we left.  She was helpful and polite and seemed genuinely disappointed that we weren't happy with our stay.This chain should do some serious investment in this hotel location if they are expecting people to pay $150 for such a dump of a room. We could have found a much nicer and more importantly cleaner room in the French Quarter/Garden District if we had the driving time to spare, I'm quite sure. Never again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Stayed here one night last Friday after flying in from UK for family event next day.  Just needed a place to sleep really after long day of travel but I was shocked at the overall prices of the hotels in Metairie/Kenner area.  This hotel had decent reviews so I forked out £92 (GBP) for the room - supposedly a bargain on lastminute.com and marked down from £116 - accepting that all hotel rooms in New Orleans are expensive (by the way I'm a N.O. ex-pat who has been living in the UK for 20 years, so am still a frequent traveller to the area, although usually to the French Quarter/Garden District area).
+So...what a dump this room was!!  The room had 2 very small double beds, a kitchenette and bathroom.  It was dirty, full-stop: sticky stain on kitchen counter; dirt/gravel on kitchen floor pushed up against the walls (see photos); microwave was stained and greasy and smelled like old popcorn.  
+The smoke alarm was hanging rather attractively from the ceiling - although still attached who knows if it was working.  The ironing board that we needed to iron clothes on the next morning we discovered had a huge gash in the cover.  How long had it been like that??  When we rang reception for another one, it arrived with a broken stand so husband had to wedge it under the kitchen counter to keep it from collapsing!
+Lastly the "grab...Stayed here one night last Friday after flying in from UK for family event next day.  Just needed a place to sleep really after long day of travel but I was shocked at the overall prices of the hotels in Metairie/Kenner area.  This hotel had decent reviews so I forked out £92 (GBP) for the room - supposedly a bargain on lastminute.com and marked down from £116 - accepting that all hotel rooms in New Orleans are expensive (by the way I'm a N.O. ex-pat who has been living in the UK for 20 years, so am still a frequent traveller to the area, although usually to the French Quarter/Garden District area).So...what a dump this room was!!  The room had 2 very small double beds, a kitchenette and bathroom.  It was dirty, full-stop: sticky stain on kitchen counter; dirt/gravel on kitchen floor pushed up against the walls (see photos); microwave was stained and greasy and smelled like old popcorn.  The smoke alarm was hanging rather attractively from the ceiling - although still attached who knows if it was working.  The ironing board that we needed to iron clothes on the next morning we discovered had a huge gash in the cover.  How long had it been like that??  When we rang reception for another one, it arrived with a broken stand so husband had to wedge it under the kitchen counter to keep it from collapsing!Lastly the "grab and go" breakfast next morning was terrible: vending-machine quality wrapped muffins (who knows how many chemicals to be found inside), bad coffee with chemical fake powdered creamer (no milk/real cream whatsoever), a dried out orange and a few cereal bars, the last 3 of which we managed to grab (note, although our breakfast was "grabbed" at 6:45AM we were lucky to get the last few bits out, although it was later re-stocked when we checked out at 8AM, we noticed).The only reason I've not given the hotel 1 star is due to the friendly staff, especially the receptionist who was on duty late when we arrived (9pm) and there again in the morning when we left.  She was helpful and polite and seemed genuinely disappointed that we weren't happy with our stay.This chain should do some serious investment in this hotel location if they are expecting people to pay $150 for such a dump of a room. We could have found a much nicer and more importantly cleaner room in the French Quarter/Garden District if we had the driving time to spare, I'm quite sure. Never again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r256699066-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>256699066</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>work stay</t>
+  </si>
+  <si>
+    <t>the price was right for a work stay, rooms are fine with kitchenette, towels are very rough.overall a good stay.staff was pleasant and made for a comfortable stay. plenty to do around the area from shopping to some very good restaraunts available to please most people.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>the price was right for a work stay, rooms are fine with kitchenette, towels are very rough.overall a good stay.staff was pleasant and made for a comfortable stay. plenty to do around the area from shopping to some very good restaraunts available to please most people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r253300260-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>253300260</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>My wife &amp; I had a very nice stay @ Extended Stay America for the week-end. A fridge &amp; microwave I expected, but the kitchenette I did not. We didn't cook in the room but we could have. Everything was clean, all personal were nice &amp; attentive. Single queen was comfortable. A/C &amp; heat worked fine. Asked the desk to recommend a place to eat, suggested Cajun Grill &amp; Bar next door. We arrived on a Saturday after 6, so we tried it. It's a dive, but were definitely impressed with the food. All you can eat catfish platter between 5-7. Overall, very happy with the room &amp; food next door!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2015</t>
+  </si>
+  <si>
+    <t>My wife &amp; I had a very nice stay @ Extended Stay America for the week-end. A fridge &amp; microwave I expected, but the kitchenette I did not. We didn't cook in the room but we could have. Everything was clean, all personal were nice &amp; attentive. Single queen was comfortable. A/C &amp; heat worked fine. Asked the desk to recommend a place to eat, suggested Cajun Grill &amp; Bar next door. We arrived on a Saturday after 6, so we tried it. It's a dive, but were definitely impressed with the food. All you can eat catfish platter between 5-7. Overall, very happy with the room &amp; food next door!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r248315529-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>248315529</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Do yourself a favor........</t>
+  </si>
+  <si>
+    <t>....and stay elsewhere.  I'm not hard to please and the smiles and pleasantness of those at the front desk, while welcomed, was about all the pleasantness one will get at this hotel.  
+     Upon checking in, I was told my request made weeks prior, was just that, a request.  It wasn't honored although the front desk did try to find something close to my request.
+     Beware of the smoke as others have mentioned.  Although a non-smoking room was to be had, getting there required going through a hallway that reeked of smoke.  Apparently this is the "smoking zone".  In fact, upon entering the hotel, I smelled an odor that I just couldn't put my finger upon.  
+      Bed linens were not changed nor offered during the three night stay.  No one comes to your room to empty trash or straighten up a bit.  The tissue box in the bathroom had one tissue.  Who cleans a room and leaves a tissue box with one tissue and not leave another box?  Never were clean, fresh towels or facecloths put in the room. 
+      While the "grab and go" breakfast seems a bonus, it appears many of the clientele of this hotel are familiar with the grab and go technique.  In fact, too many appear to use the grab and go method as a livelihood.  Just creepy.
+      For the cost of a three night stay, you can find much better and for a bit more, a.......and stay elsewhere.  I'm not hard to please and the smiles and pleasantness of those at the front desk, while welcomed, was about all the pleasantness one will get at this hotel.       Upon checking in, I was told my request made weeks prior, was just that, a request.  It wasn't honored although the front desk did try to find something close to my request.     Beware of the smoke as others have mentioned.  Although a non-smoking room was to be had, getting there required going through a hallway that reeked of smoke.  Apparently this is the "smoking zone".  In fact, upon entering the hotel, I smelled an odor that I just couldn't put my finger upon.        Bed linens were not changed nor offered during the three night stay.  No one comes to your room to empty trash or straighten up a bit.  The tissue box in the bathroom had one tissue.  Who cleans a room and leaves a tissue box with one tissue and not leave another box?  Never were clean, fresh towels or facecloths put in the room.       While the "grab and go" breakfast seems a bonus, it appears many of the clientele of this hotel are familiar with the grab and go technique.  In fact, too many appear to use the grab and go method as a livelihood.  Just creepy.      For the cost of a three night stay, you can find much better and for a bit more, a lot better.Pass on this one.  You won't regret it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>....and stay elsewhere.  I'm not hard to please and the smiles and pleasantness of those at the front desk, while welcomed, was about all the pleasantness one will get at this hotel.  
+     Upon checking in, I was told my request made weeks prior, was just that, a request.  It wasn't honored although the front desk did try to find something close to my request.
+     Beware of the smoke as others have mentioned.  Although a non-smoking room was to be had, getting there required going through a hallway that reeked of smoke.  Apparently this is the "smoking zone".  In fact, upon entering the hotel, I smelled an odor that I just couldn't put my finger upon.  
+      Bed linens were not changed nor offered during the three night stay.  No one comes to your room to empty trash or straighten up a bit.  The tissue box in the bathroom had one tissue.  Who cleans a room and leaves a tissue box with one tissue and not leave another box?  Never were clean, fresh towels or facecloths put in the room. 
+      While the "grab and go" breakfast seems a bonus, it appears many of the clientele of this hotel are familiar with the grab and go technique.  In fact, too many appear to use the grab and go method as a livelihood.  Just creepy.
+      For the cost of a three night stay, you can find much better and for a bit more, a.......and stay elsewhere.  I'm not hard to please and the smiles and pleasantness of those at the front desk, while welcomed, was about all the pleasantness one will get at this hotel.       Upon checking in, I was told my request made weeks prior, was just that, a request.  It wasn't honored although the front desk did try to find something close to my request.     Beware of the smoke as others have mentioned.  Although a non-smoking room was to be had, getting there required going through a hallway that reeked of smoke.  Apparently this is the "smoking zone".  In fact, upon entering the hotel, I smelled an odor that I just couldn't put my finger upon.        Bed linens were not changed nor offered during the three night stay.  No one comes to your room to empty trash or straighten up a bit.  The tissue box in the bathroom had one tissue.  Who cleans a room and leaves a tissue box with one tissue and not leave another box?  Never were clean, fresh towels or facecloths put in the room.       While the "grab and go" breakfast seems a bonus, it appears many of the clientele of this hotel are familiar with the grab and go technique.  In fact, too many appear to use the grab and go method as a livelihood.  Just creepy.      For the cost of a three night stay, you can find much better and for a bit more, a lot better.Pass on this one.  You won't regret it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r246751443-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>246751443</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Room looked good</t>
+  </si>
+  <si>
+    <t>Our room looked good but when we first walked in it smelled like under arm odor. Hallway smelled like cigarettes even tho it says no smoking. We are smokers but why are we not allowed to smoke if hallway smells like cigs. Kitchen is nice with full size frig. Staff was nice. Towels are very rough and they only clean your room once a week. So we cleaned our own room for 3 days. If you want clean towels you have to go get them yourself downstairs. We paid a lot of $$ but no service. Beds are comfy but will not stay here again. Too expensive. Free good wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our room looked good but when we first walked in it smelled like under arm odor. Hallway smelled like cigarettes even tho it says no smoking. We are smokers but why are we not allowed to smoke if hallway smells like cigs. Kitchen is nice with full size frig. Staff was nice. Towels are very rough and they only clean your room once a week. So we cleaned our own room for 3 days. If you want clean towels you have to go get them yourself downstairs. We paid a lot of $$ but no service. Beds are comfy but will not stay here again. Too expensive. Free good wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r240295004-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>240295004</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Smoke Smell Everywhere</t>
+  </si>
+  <si>
+    <t>I usually don't complain but this hotel. Bed and Bath are not too clean. the rest of the room looked scraggily. And the front desk are rude and they didn't clean the room all time we were there. the smoke smell everywhere, if you are not smoking person don't go there, I will never stay at this place againMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded November 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2014</t>
+  </si>
+  <si>
+    <t>I usually don't complain but this hotel. Bed and Bath are not too clean. the rest of the room looked scraggily. And the front desk are rude and they didn't clean the room all time we were there. the smoke smell everywhere, if you are not smoking person don't go there, I will never stay at this place againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r238617747-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>238617747</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly bad</t>
+  </si>
+  <si>
+    <t>The hotel itself looked nice enough, and the parking was adequate. The hotel rooms are accessed through interior corridors. The room with one queen bed was a nice size. The kitchen would probably be adequate, but we didn't use it as we only stayed one night. The fridge is full sized, not a mini. There were no dishes or silverware, but a card on the counter said you could get them from the front desk. 
+Now the problems: 
+The TV in our room was not hooked up right and every channel was snowy/fuzzy and not watchable. We didn't figure this out until about 11pm, so we didn't want to call the desk to have someone look at it. They probably could have fixed it, but it wasn't worth the hassle. 
+The kitchen sink had plentiful hot water, but the shower had none. I don't know if there was a device installed to keep you from turning the knob to hot, or if it was just hooked up wrong, but at 7:15am I took the shortest, coldest shower of my life. Again, I didn't have time to call and complain. I was getting ready to leave for a meeting and did not have time to call and wait or move to another room. 
+The "breakfast" was basically 1/10th of the packaged breakfast foods you would typically find at a convenience store. Granola bars, a few apples and oranges, coffee, oj, and...The hotel itself looked nice enough, and the parking was adequate. The hotel rooms are accessed through interior corridors. The room with one queen bed was a nice size. The kitchen would probably be adequate, but we didn't use it as we only stayed one night. The fridge is full sized, not a mini. There were no dishes or silverware, but a card on the counter said you could get them from the front desk. Now the problems: The TV in our room was not hooked up right and every channel was snowy/fuzzy and not watchable. We didn't figure this out until about 11pm, so we didn't want to call the desk to have someone look at it. They probably could have fixed it, but it wasn't worth the hassle. The kitchen sink had plentiful hot water, but the shower had none. I don't know if there was a device installed to keep you from turning the knob to hot, or if it was just hooked up wrong, but at 7:15am I took the shortest, coldest shower of my life. Again, I didn't have time to call and complain. I was getting ready to leave for a meeting and did not have time to call and wait or move to another room. The "breakfast" was basically 1/10th of the packaged breakfast foods you would typically find at a convenience store. Granola bars, a few apples and oranges, coffee, oj, and oatmeal. It definitely didn't qualify as even a continental breakfast. Overall it was just a bad experience. I understand I could have called the front desk and had my issues addressed, but coming in late and leaving early, I would like to have my needs met without asking. I definitely won't stay here again. If you don't need the kitchen and aren't traveling with pets, I recommend the Best Western Plus nearby. The rates are similar and the room and amenities are much better. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel itself looked nice enough, and the parking was adequate. The hotel rooms are accessed through interior corridors. The room with one queen bed was a nice size. The kitchen would probably be adequate, but we didn't use it as we only stayed one night. The fridge is full sized, not a mini. There were no dishes or silverware, but a card on the counter said you could get them from the front desk. 
+Now the problems: 
+The TV in our room was not hooked up right and every channel was snowy/fuzzy and not watchable. We didn't figure this out until about 11pm, so we didn't want to call the desk to have someone look at it. They probably could have fixed it, but it wasn't worth the hassle. 
+The kitchen sink had plentiful hot water, but the shower had none. I don't know if there was a device installed to keep you from turning the knob to hot, or if it was just hooked up wrong, but at 7:15am I took the shortest, coldest shower of my life. Again, I didn't have time to call and complain. I was getting ready to leave for a meeting and did not have time to call and wait or move to another room. 
+The "breakfast" was basically 1/10th of the packaged breakfast foods you would typically find at a convenience store. Granola bars, a few apples and oranges, coffee, oj, and...The hotel itself looked nice enough, and the parking was adequate. The hotel rooms are accessed through interior corridors. The room with one queen bed was a nice size. The kitchen would probably be adequate, but we didn't use it as we only stayed one night. The fridge is full sized, not a mini. There were no dishes or silverware, but a card on the counter said you could get them from the front desk. Now the problems: The TV in our room was not hooked up right and every channel was snowy/fuzzy and not watchable. We didn't figure this out until about 11pm, so we didn't want to call the desk to have someone look at it. They probably could have fixed it, but it wasn't worth the hassle. The kitchen sink had plentiful hot water, but the shower had none. I don't know if there was a device installed to keep you from turning the knob to hot, or if it was just hooked up wrong, but at 7:15am I took the shortest, coldest shower of my life. Again, I didn't have time to call and complain. I was getting ready to leave for a meeting and did not have time to call and wait or move to another room. The "breakfast" was basically 1/10th of the packaged breakfast foods you would typically find at a convenience store. Granola bars, a few apples and oranges, coffee, oj, and oatmeal. It definitely didn't qualify as even a continental breakfast. Overall it was just a bad experience. I understand I could have called the front desk and had my issues addressed, but coming in late and leaving early, I would like to have my needs met without asking. I definitely won't stay here again. If you don't need the kitchen and aren't traveling with pets, I recommend the Best Western Plus nearby. The rates are similar and the room and amenities are much better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r237928292-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>237928292</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>One week stay</t>
+  </si>
+  <si>
+    <t>My husband and I tried Extended Stay for the first time on this trip to New Orleans. Normally, we stay in the French Quarter, but this time, we wanted to stay outside the quarter to see other sites. The room was clean, had free parking, free wifi and free grab and go breakfast. We did have a little complication with our stay, but the staff was very helpful to get it resolved. The only complaint I have is the towels were extremely rough.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I tried Extended Stay for the first time on this trip to New Orleans. Normally, we stay in the French Quarter, but this time, we wanted to stay outside the quarter to see other sites. The room was clean, had free parking, free wifi and free grab and go breakfast. We did have a little complication with our stay, but the staff was very helpful to get it resolved. The only complaint I have is the towels were extremely rough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r234463147-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>234463147</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Decent Hotel in Safe Area Near Shopping/Restaurants....Good But Basic</t>
+  </si>
+  <si>
+    <t>Wife and I stayed for two nights during New Orleans Saints home game.  Overall, this is a good, cheap, basic hotel with free parking, free breakfast, and free wifi that's located in a safe area not far away from a Walmart Supercenter, gas stations, shopping centers, and restaurants.  A few minutes drive to Louis Armstrong (New Orleans) Airport and about a 10 minute drive away from downtown New Orleans on the interstate.  Staff was nice and wore Saints jerseys to show team spirit.  Room was clean, water was hot, hotel located in a safe, decent area without any riff raff as far as I could tell.  Only complaints: free breakfast not much (mostly coffee, cereal/cereal bars, and fruit, but hotel stay rates are so cheap you can't expect much more out of this without paying more), they only have 1 or 2 rolling carts to carry luggage upstairs to room (so expect to wait until other patrons finish with them to snag one for yourself), and at night there were a few "happy drunks" outside on the benches near the main entrance.  These were actual hotel patrons and not strangers off the street.  They weren't causing any scene or riff raff, but they were publicly intoxicated.  However, this is not the fault of the hotel, but the patrons.  But I just chalked it up to this is game day in  New Orleans, and folks will have them a couple in...Wife and I stayed for two nights during New Orleans Saints home game.  Overall, this is a good, cheap, basic hotel with free parking, free breakfast, and free wifi that's located in a safe area not far away from a Walmart Supercenter, gas stations, shopping centers, and restaurants.  A few minutes drive to Louis Armstrong (New Orleans) Airport and about a 10 minute drive away from downtown New Orleans on the interstate.  Staff was nice and wore Saints jerseys to show team spirit.  Room was clean, water was hot, hotel located in a safe, decent area without any riff raff as far as I could tell.  Only complaints: free breakfast not much (mostly coffee, cereal/cereal bars, and fruit, but hotel stay rates are so cheap you can't expect much more out of this without paying more), they only have 1 or 2 rolling carts to carry luggage upstairs to room (so expect to wait until other patrons finish with them to snag one for yourself), and at night there were a few "happy drunks" outside on the benches near the main entrance.  These were actual hotel patrons and not strangers off the street.  They weren't causing any scene or riff raff, but they were publicly intoxicated.  However, this is not the fault of the hotel, but the patrons.  But I just chalked it up to this is game day in  New Orleans, and folks will have them a couple in the French Quarters.  It's just what people do in "Nawlins!"  Overall, hotel is ideal for budget conscious person seeking safe, cheap, clean, basic thrifty deal out of a hotel without expecting more than average in facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Wife and I stayed for two nights during New Orleans Saints home game.  Overall, this is a good, cheap, basic hotel with free parking, free breakfast, and free wifi that's located in a safe area not far away from a Walmart Supercenter, gas stations, shopping centers, and restaurants.  A few minutes drive to Louis Armstrong (New Orleans) Airport and about a 10 minute drive away from downtown New Orleans on the interstate.  Staff was nice and wore Saints jerseys to show team spirit.  Room was clean, water was hot, hotel located in a safe, decent area without any riff raff as far as I could tell.  Only complaints: free breakfast not much (mostly coffee, cereal/cereal bars, and fruit, but hotel stay rates are so cheap you can't expect much more out of this without paying more), they only have 1 or 2 rolling carts to carry luggage upstairs to room (so expect to wait until other patrons finish with them to snag one for yourself), and at night there were a few "happy drunks" outside on the benches near the main entrance.  These were actual hotel patrons and not strangers off the street.  They weren't causing any scene or riff raff, but they were publicly intoxicated.  However, this is not the fault of the hotel, but the patrons.  But I just chalked it up to this is game day in  New Orleans, and folks will have them a couple in...Wife and I stayed for two nights during New Orleans Saints home game.  Overall, this is a good, cheap, basic hotel with free parking, free breakfast, and free wifi that's located in a safe area not far away from a Walmart Supercenter, gas stations, shopping centers, and restaurants.  A few minutes drive to Louis Armstrong (New Orleans) Airport and about a 10 minute drive away from downtown New Orleans on the interstate.  Staff was nice and wore Saints jerseys to show team spirit.  Room was clean, water was hot, hotel located in a safe, decent area without any riff raff as far as I could tell.  Only complaints: free breakfast not much (mostly coffee, cereal/cereal bars, and fruit, but hotel stay rates are so cheap you can't expect much more out of this without paying more), they only have 1 or 2 rolling carts to carry luggage upstairs to room (so expect to wait until other patrons finish with them to snag one for yourself), and at night there were a few "happy drunks" outside on the benches near the main entrance.  These were actual hotel patrons and not strangers off the street.  They weren't causing any scene or riff raff, but they were publicly intoxicated.  However, this is not the fault of the hotel, but the patrons.  But I just chalked it up to this is game day in  New Orleans, and folks will have them a couple in the French Quarters.  It's just what people do in "Nawlins!"  Overall, hotel is ideal for budget conscious person seeking safe, cheap, clean, basic thrifty deal out of a hotel without expecting more than average in facilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r233110186-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>233110186</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>My Company</t>
+  </si>
+  <si>
+    <t>We have been planing a company team build for months with this hotel. Now when it is time to book it's saying no rooms available sad sad . Hopefully something comes available soon because it's getting closer to that time Thanks</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r231728561-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>231728561</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Looks OK, but it's not</t>
+  </si>
+  <si>
+    <t>We have stayed at this establishment several times, with acceptable results.  However, our latest attempted stay was terrible, and we had to leave.  First of all, the price has increased by $20+ per day.  We checked in, but the bathroom fan in our first room didn't work, so the maintenance person was called.  He told us that the fan "was smoking and hot", so he had disabled the fan before we checked in (yikes!).  We asked for a room change, but the air conditioner didn't work in the 2nd room.  The maintenance person had gone home for the evening, so the night manager arrived and attempted to fix it.  No improvement.  So we immediately left and went to another nearby hotel with a nationally solid reputation.Although we go to New Orleans regularly, we will not be making reservations here any more.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded October 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2014</t>
+  </si>
+  <si>
+    <t>We have stayed at this establishment several times, with acceptable results.  However, our latest attempted stay was terrible, and we had to leave.  First of all, the price has increased by $20+ per day.  We checked in, but the bathroom fan in our first room didn't work, so the maintenance person was called.  He told us that the fan "was smoking and hot", so he had disabled the fan before we checked in (yikes!).  We asked for a room change, but the air conditioner didn't work in the 2nd room.  The maintenance person had gone home for the evening, so the night manager arrived and attempted to fix it.  No improvement.  So we immediately left and went to another nearby hotel with a nationally solid reputation.Although we go to New Orleans regularly, we will not be making reservations here any more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r224133333-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>224133333</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Hit or miss, depending on room...</t>
+  </si>
+  <si>
+    <t>We had stayed there VERY briefly (a total of 5 hours) back in May 2014 when we were moving from one house to another (located out of state) and needed a place to sleep since our belongings were all packed and had a nice, quiet stay on the 2nd floor of the hotel.  The room was in great shape and the only downside was the noise from the fridge compressor kicking on every few hours.
+This time I stayed there one night while visiting the area, this time my room was located on the 4th floor.  I noticed SEVERAL things amiss with the 4th floor roof.  First off you notice that the door is shy about 1-1 1/2" on one top corner of the door, then you notice the smoke detector hanging from wires as you enter the room.  Then you see the "don't dare bring a blacklight into this room" computer chair covered in some sort of 'stains' that I wouldn't touch with a CSI kit!  We avoided the computer chair for the brief 12-hour stay, so overall the room was 'ok'.  Upon leaving later on we noticed the door would not lock properly and asked for assistance by the very friendly and helpful staff (by the way - all the staff encountered at this location were very friendly and accommodating).  The staff member informed us that Hurricane Issac (which hit nearly TWO years ago) took its toll on...We had stayed there VERY briefly (a total of 5 hours) back in May 2014 when we were moving from one house to another (located out of state) and needed a place to sleep since our belongings were all packed and had a nice, quiet stay on the 2nd floor of the hotel.  The room was in great shape and the only downside was the noise from the fridge compressor kicking on every few hours.This time I stayed there one night while visiting the area, this time my room was located on the 4th floor.  I noticed SEVERAL things amiss with the 4th floor roof.  First off you notice that the door is shy about 1-1 1/2" on one top corner of the door, then you notice the smoke detector hanging from wires as you enter the room.  Then you see the "don't dare bring a blacklight into this room" computer chair covered in some sort of 'stains' that I wouldn't touch with a CSI kit!  We avoided the computer chair for the brief 12-hour stay, so overall the room was 'ok'.  Upon leaving later on we noticed the door would not lock properly and asked for assistance by the very friendly and helpful staff (by the way - all the staff encountered at this location were very friendly and accommodating).  The staff member informed us that Hurricane Issac (which hit nearly TWO years ago) took its toll on the 4th floor of the hotel and they had some damage - including the gap between the top of the door and the door itself, as well as the door failing to lock properly each time it was used.  This stay could be upgraded to a 'very good' rating IF the door fit properly, they fixed the smoke detector installation, and threw out the stained computer chair.  One thing to take into consideration about all the rooms here at the hotel is they are equipped with a fridge which will wake you up in the middle of the night from the compressor kicking on. Overall - cheap place to stay that is safe and in a good area....needs some cosmetic changes to bring it to 'very good' and do something about the noise in the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>We had stayed there VERY briefly (a total of 5 hours) back in May 2014 when we were moving from one house to another (located out of state) and needed a place to sleep since our belongings were all packed and had a nice, quiet stay on the 2nd floor of the hotel.  The room was in great shape and the only downside was the noise from the fridge compressor kicking on every few hours.
+This time I stayed there one night while visiting the area, this time my room was located on the 4th floor.  I noticed SEVERAL things amiss with the 4th floor roof.  First off you notice that the door is shy about 1-1 1/2" on one top corner of the door, then you notice the smoke detector hanging from wires as you enter the room.  Then you see the "don't dare bring a blacklight into this room" computer chair covered in some sort of 'stains' that I wouldn't touch with a CSI kit!  We avoided the computer chair for the brief 12-hour stay, so overall the room was 'ok'.  Upon leaving later on we noticed the door would not lock properly and asked for assistance by the very friendly and helpful staff (by the way - all the staff encountered at this location were very friendly and accommodating).  The staff member informed us that Hurricane Issac (which hit nearly TWO years ago) took its toll on...We had stayed there VERY briefly (a total of 5 hours) back in May 2014 when we were moving from one house to another (located out of state) and needed a place to sleep since our belongings were all packed and had a nice, quiet stay on the 2nd floor of the hotel.  The room was in great shape and the only downside was the noise from the fridge compressor kicking on every few hours.This time I stayed there one night while visiting the area, this time my room was located on the 4th floor.  I noticed SEVERAL things amiss with the 4th floor roof.  First off you notice that the door is shy about 1-1 1/2" on one top corner of the door, then you notice the smoke detector hanging from wires as you enter the room.  Then you see the "don't dare bring a blacklight into this room" computer chair covered in some sort of 'stains' that I wouldn't touch with a CSI kit!  We avoided the computer chair for the brief 12-hour stay, so overall the room was 'ok'.  Upon leaving later on we noticed the door would not lock properly and asked for assistance by the very friendly and helpful staff (by the way - all the staff encountered at this location were very friendly and accommodating).  The staff member informed us that Hurricane Issac (which hit nearly TWO years ago) took its toll on the 4th floor of the hotel and they had some damage - including the gap between the top of the door and the door itself, as well as the door failing to lock properly each time it was used.  This stay could be upgraded to a 'very good' rating IF the door fit properly, they fixed the smoke detector installation, and threw out the stained computer chair.  One thing to take into consideration about all the rooms here at the hotel is they are equipped with a fridge which will wake you up in the middle of the night from the compressor kicking on. Overall - cheap place to stay that is safe and in a good area....needs some cosmetic changes to bring it to 'very good' and do something about the noise in the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r222533616-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>222533616</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Overall Nice</t>
+  </si>
+  <si>
+    <t>This hotel was an overall good value for the amount. Stayed here for 6 nights. Room was clean and beds were comfortable. Have to check with front desk for kitchenware, but bought my own cooking set at local Walmart. Front desk staff was friendly and helpful.No housekeeping had to replace own towels at front desk. For it to be extended stay wish there were more amenities especially since traveled with 3 kids. Would stay again, but no more than 2 days if traveling with kids. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was an overall good value for the amount. Stayed here for 6 nights. Room was clean and beds were comfortable. Have to check with front desk for kitchenware, but bought my own cooking set at local Walmart. Front desk staff was friendly and helpful.No housekeeping had to replace own towels at front desk. For it to be extended stay wish there were more amenities especially since traveled with 3 kids. Would stay again, but no more than 2 days if traveling with kids. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r220055632-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>220055632</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Enjoyable stay, I would do it again.</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff was friendly and they were very helpful. Also having a kitchen to cook my own meals whenever I felt like it was a plus. All I had to do was request the cooking utensils that I needed and the staff quickly brought them to my room. The laundry room where I could wash my clothes at my convenience really gave the feeling of a home away from home. I would definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff was friendly and they were very helpful. Also having a kitchen to cook my own meals whenever I felt like it was a plus. All I had to do was request the cooking utensils that I needed and the staff quickly brought them to my room. The laundry room where I could wash my clothes at my convenience really gave the feeling of a home away from home. I would definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r218660896-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>218660896</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>good clean place</t>
+  </si>
+  <si>
+    <t>Stayed here for a few days. Room was clean and neat and quiet. Would stay again.Centered in town so it's close to everythingOver all a great stay. There is a little bar behind the hotel that has food. Waitress is really nice there.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a few days. Room was clean and neat and quiet. Would stay again.Centered in town so it's close to everythingOver all a great stay. There is a little bar behind the hotel that has food. Waitress is really nice there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r215706806-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>215706806</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Great prices, very nice staff, must stay!</t>
+  </si>
+  <si>
+    <t>We had a great experience here.  The staff was able to refund the last night's stay when I had to leave early.  Very friendly staff and clean hotel.  I will be staying at more Extended Stay Americas in the future.  This was our first and a very enjoyable experience.  We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We had a great experience here.  The staff was able to refund the last night's stay when I had to leave early.  Very friendly staff and clean hotel.  I will be staying at more Extended Stay Americas in the future.  This was our first and a very enjoyable experience.  We will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r215519645-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>215519645</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>It's nice</t>
+  </si>
+  <si>
+    <t>Came down on a roadtrip, without making reservations...they were still able to accommodate my family and the price was fair. Looks like the hotel has been recently renovated, staff was nice. It's about 5-10 min drive to downtown and a lot of restaurants nearby. If you want something nice without having to pay all the extras this is the place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r212353235-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>212353235</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>the bomb dont beleive bad reviews</t>
+  </si>
+  <si>
+    <t>stayed at this hotel the weekend of all star weekend in feb. was very nervous of the reviews we read. got there everything was pefect as a matter of fact our room was like the ones they show on the commercial actually!lol couldn't believe room was clean hotel was nice and secure and conviently off the expressway. was really impressed and neighborhood was in fact quiet thanks to the whole staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>stayed at this hotel the weekend of all star weekend in feb. was very nervous of the reviews we read. got there everything was pefect as a matter of fact our room was like the ones they show on the commercial actually!lol couldn't believe room was clean hotel was nice and secure and conviently off the expressway. was really impressed and neighborhood was in fact quiet thanks to the whole staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r210608617-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>210608617</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>We stayed for an assembly the weekend of June 13-15. The rooms were clean and staff were wonderful.  The only problem I had was our room smelled like cigarettes even though it was a non-smoking room.  But everything else was great.  We didn't have the eat and grab breakfast, so I can't give a review on that.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r210344094-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>210344094</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel-No housekeeping</t>
+  </si>
+  <si>
+    <t>This hotel is located in Metairie next to a couple of not-so-nice looking hotels, but standouts from the rest. The hotel looks freshly renovated and the room was nice and clean. The kitchenette was nice, and came with basic utensils and cooking pans. The bed and pillows were comfortable. The grab and go breakfast was very basic, but they ran out food before 7 am, but offered a nice selection of fruit, oatmeal, muffins, and breakfast bars. There are not many working TV channels which was a little disappointing, but all of the standard channels worked. There is NO regular housekeeping so you have to exchange your towels at the front desk and take out your own trash. However, overall, it was a nice stay and offered a more economical option than other New Orleans hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is located in Metairie next to a couple of not-so-nice looking hotels, but standouts from the rest. The hotel looks freshly renovated and the room was nice and clean. The kitchenette was nice, and came with basic utensils and cooking pans. The bed and pillows were comfortable. The grab and go breakfast was very basic, but they ran out food before 7 am, but offered a nice selection of fruit, oatmeal, muffins, and breakfast bars. There are not many working TV channels which was a little disappointing, but all of the standard channels worked. There is NO regular housekeeping so you have to exchange your towels at the front desk and take out your own trash. However, overall, it was a nice stay and offered a more economical option than other New Orleans hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r209052000-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>209052000</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>We had read the mixed reviews, but it offered what we were looking for.   We found the location to be absolutely perfect for us to get onto the Highway.   The room was very clean, the bed comfortable.   We certainly did not notice any 'odours'!   The hotel does not look tired.    The staff were a great help to us both, any questions we had, the answered.   The 'to go' breakfast worked well too.   Coffee and oats and apples.   Could not ask for more.   Very good value. Thank you</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r207547596-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>207547596</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Given all the negative online reviews, I was reluctant to stay here. However, having stayed there I can state with confidence that those negative comments are unfounded. The hotel and room was clean and the staff was great. There was plenty of hot water. Rooms have been completely renovated. Hotel access is very easy being at IH-10 and Causeway Blvd. Many nice restaurants in the nearby area. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Given all the negative online reviews, I was reluctant to stay here. However, having stayed there I can state with confidence that those negative comments are unfounded. The hotel and room was clean and the staff was great. There was plenty of hot water. Rooms have been completely renovated. Hotel access is very easy being at IH-10 and Causeway Blvd. Many nice restaurants in the nearby area. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r207404743-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>207404743</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Better than I expect!</t>
+  </si>
+  <si>
+    <t>We stayed on 3rd for and when we walked in our room we said WOW! Didn't expect that it would look so nice and clean. The lady that check us in I think Catletta was great and very professional! She smiled while checking us in. We don't get that at the Ramada!  She seen us get off the elevator and ask how was everything we our room, my husband was impressed. Sunday the trash room was full of trash and should have been taken out. Overall I would recommend and stay again. Thanks for a great weekend!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r206779936-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>206779936</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Good but basic.</t>
+  </si>
+  <si>
+    <t>This was our second stay at an Extended Stay America and the first time at this location. We chose this hotel because we like having the kitchenette, the price was more reasonable than downtown New Orleans and it has free parking. The front desk staff was pleasant, the room was clean but we did have odor issues. The floor was supposed to be non-smoking but obviously some of the other people staying there didn't follow that. The wifi speed was on the slow side as we chose not to upgrade ($) to the faster speed so we could not watch Netflix. The location is about half way between the airport and New Orleans and it was an easy 15 minute drive to get into the city. There is a mall a few minutes from the hotel and a couple of different areas that have restaurants. It is a decent place to stay but nothing fancy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>This was our second stay at an Extended Stay America and the first time at this location. We chose this hotel because we like having the kitchenette, the price was more reasonable than downtown New Orleans and it has free parking. The front desk staff was pleasant, the room was clean but we did have odor issues. The floor was supposed to be non-smoking but obviously some of the other people staying there didn't follow that. The wifi speed was on the slow side as we chose not to upgrade ($) to the faster speed so we could not watch Netflix. The location is about half way between the airport and New Orleans and it was an easy 15 minute drive to get into the city. There is a mall a few minutes from the hotel and a couple of different areas that have restaurants. It is a decent place to stay but nothing fancy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r201122969-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201122969</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>We stayed at this extended stay from 4/6 - 4/11.   We went to LA to visit with an Army friend my hubby hadn't seen in 46 years and to sightsee in the French Quarter.   We were received by Donna, a very nice, polite young lady.   She was very friendly.   We wanted a room on the 1st floor and took the only one available.   Understand this is an extended stay, we have stayed at the Wyndham and have encountered more problems than we did here paying much more for less days.   The room was good, the sink drains in bathroom and kitchen went down slowly, but we didn't see anything to report there.   We did have hot water, it took a while to heat, but that was not a big deal.   The refrigerator was great, we didn't use the stove nor microwave as we left very early each day and came back just to lay back and watch tv or be online.   Its conveniently located 15 minutes from the French Quarter so we didn't use our car and just took a taxi to avoid having to look for parking.   You have to take out your own garbage, that is true of every extended stay, and I don't see it to be a big deal.   My husband threw our car keys away in the dumpster as he was throwing away the garbage and I went to the front desk and they sent...We stayed at this extended stay from 4/6 - 4/11.   We went to LA to visit with an Army friend my hubby hadn't seen in 46 years and to sightsee in the French Quarter.   We were received by Donna, a very nice, polite young lady.   She was very friendly.   We wanted a room on the 1st floor and took the only one available.   Understand this is an extended stay, we have stayed at the Wyndham and have encountered more problems than we did here paying much more for less days.   The room was good, the sink drains in bathroom and kitchen went down slowly, but we didn't see anything to report there.   We did have hot water, it took a while to heat, but that was not a big deal.   The refrigerator was great, we didn't use the stove nor microwave as we left very early each day and came back just to lay back and watch tv or be online.   Its conveniently located 15 minutes from the French Quarter so we didn't use our car and just took a taxi to avoid having to look for parking.   You have to take out your own garbage, that is true of every extended stay, and I don't see it to be a big deal.   My husband threw our car keys away in the dumpster as he was throwing away the garbage and I went to the front desk and they sent a very nice young man out to retrieve them.   TV and internet connections were good.   The staff we encountered were very friendly.   The rooms are comfortable.   We had a great time and we didn't see anything wrong with the room.  I rated as very good because the shower floor could be cleaned a bit better and we spent 2 days killing moths, which again was no biggie.   Would we stay there again?   We definitely would and will.   Like I said at the beginning, we travel a bit and have stayed in pricier places with way worse results than we received at this Extended stay.   We recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this extended stay from 4/6 - 4/11.   We went to LA to visit with an Army friend my hubby hadn't seen in 46 years and to sightsee in the French Quarter.   We were received by Donna, a very nice, polite young lady.   She was very friendly.   We wanted a room on the 1st floor and took the only one available.   Understand this is an extended stay, we have stayed at the Wyndham and have encountered more problems than we did here paying much more for less days.   The room was good, the sink drains in bathroom and kitchen went down slowly, but we didn't see anything to report there.   We did have hot water, it took a while to heat, but that was not a big deal.   The refrigerator was great, we didn't use the stove nor microwave as we left very early each day and came back just to lay back and watch tv or be online.   Its conveniently located 15 minutes from the French Quarter so we didn't use our car and just took a taxi to avoid having to look for parking.   You have to take out your own garbage, that is true of every extended stay, and I don't see it to be a big deal.   My husband threw our car keys away in the dumpster as he was throwing away the garbage and I went to the front desk and they sent...We stayed at this extended stay from 4/6 - 4/11.   We went to LA to visit with an Army friend my hubby hadn't seen in 46 years and to sightsee in the French Quarter.   We were received by Donna, a very nice, polite young lady.   She was very friendly.   We wanted a room on the 1st floor and took the only one available.   Understand this is an extended stay, we have stayed at the Wyndham and have encountered more problems than we did here paying much more for less days.   The room was good, the sink drains in bathroom and kitchen went down slowly, but we didn't see anything to report there.   We did have hot water, it took a while to heat, but that was not a big deal.   The refrigerator was great, we didn't use the stove nor microwave as we left very early each day and came back just to lay back and watch tv or be online.   Its conveniently located 15 minutes from the French Quarter so we didn't use our car and just took a taxi to avoid having to look for parking.   You have to take out your own garbage, that is true of every extended stay, and I don't see it to be a big deal.   My husband threw our car keys away in the dumpster as he was throwing away the garbage and I went to the front desk and they sent a very nice young man out to retrieve them.   TV and internet connections were good.   The staff we encountered were very friendly.   The rooms are comfortable.   We had a great time and we didn't see anything wrong with the room.  I rated as very good because the shower floor could be cleaned a bit better and we spent 2 days killing moths, which again was no biggie.   Would we stay there again?   We definitely would and will.   Like I said at the beginning, we travel a bit and have stayed in pricier places with way worse results than we received at this Extended stay.   We recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r200980900-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200980900</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Wont come here again</t>
+  </si>
+  <si>
+    <t>Very poor Quality Hotel for the price.  The water in the shower gets at most warm, Never hot. Any problem you have with the room (ie clogged toilet, warm a/c, or leaky fridge) you are almost forced to just deal with it.  Horrible selection of tv channels. Lack of storage space.  There are other hotels in the area that are nicer for a cheaper price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very poor Quality Hotel for the price.  The water in the shower gets at most warm, Never hot. Any problem you have with the room (ie clogged toilet, warm a/c, or leaky fridge) you are almost forced to just deal with it.  Horrible selection of tv channels. Lack of storage space.  There are other hotels in the area that are nicer for a cheaper price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r200460675-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200460675</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Very good hotel for extended stay trips.</t>
+  </si>
+  <si>
+    <t>Stayed here from November 2013 thru January 2014. Extremely helpful and professional staff. Any little issue that arose was handled quickly and cheerfuly by the staff. Nice comfortable rooms. Plenty of hot water, a little slow to start but got hot. Thanks Mandy, Dwayne and Carlette for your restaurant advice and making me feel at home. I will stay here again on my next visit.Winfred A. Dogan</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r200459293-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200459293</t>
+  </si>
+  <si>
+    <t>Good for 1 night.</t>
+  </si>
+  <si>
+    <t>We went to New Orleans just for the weekend. We arrived at this hotel and we had driven 8 hours and we had arrived just about an hour before check in time. They did not have a room ready, which I understood because it was 1 hour before check in. I was a little surprised at the lack of house cleaning staff though since the hotel desk clerk appeared to be vacuuming out rooms and carrying linens to the rooms. When we finally were checked in, the room (even though it was non smoking) had an odor of cigarettes and stale cooked food. The beds were made and linens appeared to be clean. The restroom was very outdated, yet looked clean. This place was good for 1 or 2 nights, but I would not suggest an extended stay here.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We went to New Orleans just for the weekend. We arrived at this hotel and we had driven 8 hours and we had arrived just about an hour before check in time. They did not have a room ready, which I understood because it was 1 hour before check in. I was a little surprised at the lack of house cleaning staff though since the hotel desk clerk appeared to be vacuuming out rooms and carrying linens to the rooms. When we finally were checked in, the room (even though it was non smoking) had an odor of cigarettes and stale cooked food. The beds were made and linens appeared to be clean. The restroom was very outdated, yet looked clean. This place was good for 1 or 2 nights, but I would not suggest an extended stay here.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r199478718-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>199478718</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Best Birthday Weekend</t>
+  </si>
+  <si>
+    <t>First off let me start by saying I was upset with priceline.com for booking this hotel., I wanted something like the Comfort Inn or Holiday Inn but I got The Extended Stay America in stead., now back to my stay., The Hotel was beautiful very well kept quite., so convenient to just about any and everything you want., best of all I-Hop directly across the street.The STAFF was very professional and friendly., and Mr. DWAYNE I WANT TO PERSONAL Thank you for your help in helping me and my significant other with some great advice on where to find some good Louisiana food., there's one particular restaurant he recommended for us to try out and let me tell you OMG delicious from beginning to the end. ! New Orleans Food and Spirits!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>First off let me start by saying I was upset with priceline.com for booking this hotel., I wanted something like the Comfort Inn or Holiday Inn but I got The Extended Stay America in stead., now back to my stay., The Hotel was beautiful very well kept quite., so convenient to just about any and everything you want., best of all I-Hop directly across the street.The STAFF was very professional and friendly., and Mr. DWAYNE I WANT TO PERSONAL Thank you for your help in helping me and my significant other with some great advice on where to find some good Louisiana food., there's one particular restaurant he recommended for us to try out and let me tell you OMG delicious from beginning to the end. ! New Orleans Food and Spirits!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r196876265-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>196876265</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Thank you to Donna at the front desk for helping fix a reservation mix up.  I reserved a room for my brothers family and the reservation was for one bed but they needed two.  Donna corrected this even though it was my fault.  My brother said the room was bigger and nicer than he thought it would be and enjoyed their stay.  The hotel is very convenient to I-10 which makes it great for travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Thank you to Donna at the front desk for helping fix a reservation mix up.  I reserved a room for my brothers family and the reservation was for one bed but they needed two.  Donna corrected this even though it was my fault.  My brother said the room was bigger and nicer than he thought it would be and enjoyed their stay.  The hotel is very convenient to I-10 which makes it great for travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r196006081-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>196006081</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for over a week on business. Hotel was very clean. Bed was comfy. Staff was polite and friendly.   Nice little bar/grill behind the hotel that had decent food.   Parking was easy even with my big truck.    I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for over a week on business. Hotel was very clean. Bed was comfy. Staff was polite and friendly.   Nice little bar/grill behind the hotel that had decent food.   Parking was easy even with my big truck.    I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r195507114-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>195507114</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>Seemed like a good choice but things aren't always as they seem!!!</t>
+  </si>
+  <si>
+    <t>I had business south of Metairie Louisiana and didn't want to bring my wife down to the bayou so i decided Metairie was perfect. I had stayed at Extended Stay Americas before in Indiana and Tennesssee and was always very happy. She had never stayed at one and i assured her of how NICE they were..whoops. After checking in we observed that this place was not very clean and had a bunch of beer drinking  pipeline workers wandering all over the building. We were told that breakfast was set out at 6am so we turned in for the night hearing drunken babble in the hallway until past midnight. Morning came and we went down for the (breakfast) and found it to consist of watered down coffee,rotten apples and oranges and out of date oatmeal and oatmeal bars. I was more than disappointed and told the lady working behind the counter "the oatmeal bars are stale and three months expired" she told me that was impossible and that they were new. I grabbed a handful of them and showed her the Dec 13 exp date and this being Feb 26 14 that meant they were old. She remained adamant that i was wrong despite the date on the package and started pulling out paperwork to show me they were new..SERIOUSLY!!!! I told her i was going to work and she was wrong and i could hear her mumbling about me as...I had business south of Metairie Louisiana and didn't want to bring my wife down to the bayou so i decided Metairie was perfect. I had stayed at Extended Stay Americas before in Indiana and Tennesssee and was always very happy. She had never stayed at one and i assured her of how NICE they were..whoops. After checking in we observed that this place was not very clean and had a bunch of beer drinking  pipeline workers wandering all over the building. We were told that breakfast was set out at 6am so we turned in for the night hearing drunken babble in the hallway until past midnight. Morning came and we went down for the (breakfast) and found it to consist of watered down coffee,rotten apples and oranges and out of date oatmeal and oatmeal bars. I was more than disappointed and told the lady working behind the counter "the oatmeal bars are stale and three months expired" she told me that was impossible and that they were new. I grabbed a handful of them and showed her the Dec 13 exp date and this being Feb 26 14 that meant they were old. She remained adamant that i was wrong despite the date on the package and started pulling out paperwork to show me they were new..SERIOUSLY!!!! I told her i was going to work and she was wrong and i could hear her mumbling about me as i walked out the door. This place after further examination is one of the filthiest and unmanaged places we have ever stayed and other than Donna the afternoon desk clerk had an extremely rude staff. We will NEVER stay at one of these again and hope this review helps anyone from having our experience. There were some highpoints in Metairie (see our review of Ron's Gumbo stop) thank you!!   David MMoreShow less</t>
+  </si>
+  <si>
+    <t>I had business south of Metairie Louisiana and didn't want to bring my wife down to the bayou so i decided Metairie was perfect. I had stayed at Extended Stay Americas before in Indiana and Tennesssee and was always very happy. She had never stayed at one and i assured her of how NICE they were..whoops. After checking in we observed that this place was not very clean and had a bunch of beer drinking  pipeline workers wandering all over the building. We were told that breakfast was set out at 6am so we turned in for the night hearing drunken babble in the hallway until past midnight. Morning came and we went down for the (breakfast) and found it to consist of watered down coffee,rotten apples and oranges and out of date oatmeal and oatmeal bars. I was more than disappointed and told the lady working behind the counter "the oatmeal bars are stale and three months expired" she told me that was impossible and that they were new. I grabbed a handful of them and showed her the Dec 13 exp date and this being Feb 26 14 that meant they were old. She remained adamant that i was wrong despite the date on the package and started pulling out paperwork to show me they were new..SERIOUSLY!!!! I told her i was going to work and she was wrong and i could hear her mumbling about me as...I had business south of Metairie Louisiana and didn't want to bring my wife down to the bayou so i decided Metairie was perfect. I had stayed at Extended Stay Americas before in Indiana and Tennesssee and was always very happy. She had never stayed at one and i assured her of how NICE they were..whoops. After checking in we observed that this place was not very clean and had a bunch of beer drinking  pipeline workers wandering all over the building. We were told that breakfast was set out at 6am so we turned in for the night hearing drunken babble in the hallway until past midnight. Morning came and we went down for the (breakfast) and found it to consist of watered down coffee,rotten apples and oranges and out of date oatmeal and oatmeal bars. I was more than disappointed and told the lady working behind the counter "the oatmeal bars are stale and three months expired" she told me that was impossible and that they were new. I grabbed a handful of them and showed her the Dec 13 exp date and this being Feb 26 14 that meant they were old. She remained adamant that i was wrong despite the date on the package and started pulling out paperwork to show me they were new..SERIOUSLY!!!! I told her i was going to work and she was wrong and i could hear her mumbling about me as i walked out the door. This place after further examination is one of the filthiest and unmanaged places we have ever stayed and other than Donna the afternoon desk clerk had an extremely rude staff. We will NEVER stay at one of these again and hope this review helps anyone from having our experience. There were some highpoints in Metairie (see our review of Ron's Gumbo stop) thank you!!   David MMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r189875134-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>189875134</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>OK place</t>
+  </si>
+  <si>
+    <t>The staff was very nice and helpful.  I stayed for 5 nights.  I had free parking.  It met my needs for the stay. They fulfilled my request of a special room.  However, there was animal hair on the carpet which affected my and my child's allergies.  There were men that sat outside the back door occasionally which made me feel uncomfortable when entering/exiting the building.  It took a little while to get hot water, but it was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded February 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2014</t>
+  </si>
+  <si>
+    <t>The staff was very nice and helpful.  I stayed for 5 nights.  I had free parking.  It met my needs for the stay. They fulfilled my request of a special room.  However, there was animal hair on the carpet which affected my and my child's allergies.  There were men that sat outside the back door occasionally which made me feel uncomfortable when entering/exiting the building.  It took a little while to get hot water, but it was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r185694740-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>185694740</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Dirty rooms even with weekly cleaning. No hot water</t>
+  </si>
+  <si>
+    <t>Maid servuc poor at best clean sheets and a run through everything else. No dusting or cleaning of kitchen area. Bathroom never cleaned or replenished right. constantly having to complain to front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maid servuc poor at best clean sheets and a run through everything else. No dusting or cleaning of kitchen area. Bathroom never cleaned or replenished right. constantly having to complain to front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r184421960-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>184421960</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>nice place</t>
+  </si>
+  <si>
+    <t>Have been here for 7 days and couldn't ask for more.The entire staff went out of their way too make sure i got what i needed too have a nice stay. the room was spotless bed slept like a dream.can't ask for better for the price thanks everone at extended stat Metarie.    James SpicerMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Have been here for 7 days and couldn't ask for more.The entire staff went out of their way too make sure i got what i needed too have a nice stay. the room was spotless bed slept like a dream.can't ask for better for the price thanks everone at extended stat Metarie.    James SpicerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r183525313-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>183525313</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Wonderful experience</t>
+  </si>
+  <si>
+    <t>This hotel I stayed in for 7 nights October 2013 and it was a wonderful experience.  I got the room for 89.00 dollars a night, free parking and less than 15 minutes by car to New Orleans city center.  The rooms were clean overall and the kitchenette a plus.  The hotel was quiet and the staff very nice.  The food for breakfast nice as I want to eat in the city when I am in New Orleans anyway.  My car was safe and parking was free.  Will stay there over and over!  And I go to NOLA twice a year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r176087565-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>176087565</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>wonderful!</t>
+  </si>
+  <si>
+    <t>My company has put me at ESA twice.  Once in Seattle, once in Metarie.  No contest.  I was at each of them for two months so had plenty of time to compare.  The one in Seattle was fine but the one in Metarie, Louisiana is awesome! Everyone from the groundskeepers, to the desk staff, to the housekeeping staff and the manager are committed to great service.  Everyone learned my name quickly and used it every time they saw me. The desk staff was friendly and helpful at all times.  They were knowledgeable about local attractions and amenities.  The bed was super comfortable, the laundry area was always in good repair and tidy. It was a great experience and I would stay there any time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded September 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2013</t>
+  </si>
+  <si>
+    <t>My company has put me at ESA twice.  Once in Seattle, once in Metarie.  No contest.  I was at each of them for two months so had plenty of time to compare.  The one in Seattle was fine but the one in Metarie, Louisiana is awesome! Everyone from the groundskeepers, to the desk staff, to the housekeeping staff and the manager are committed to great service.  Everyone learned my name quickly and used it every time they saw me. The desk staff was friendly and helpful at all times.  They were knowledgeable about local attractions and amenities.  The bed was super comfortable, the laundry area was always in good repair and tidy. It was a great experience and I would stay there any time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r166953682-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>166953682</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Good place for long term stay..week or more</t>
+  </si>
+  <si>
+    <t>The hotel staff was friendly and helpful. The location was good, close to I-10..convenient to downtown. It was fairly close to restuarants, shops &amp; grocery stores if needed. It was interesting the desk hours were only until 11 pm. Not sure what would have happen if we needed assistance after hours. Because it is an extended stay I did not realize if you are staying less than 7 days, your stay does not include housekeeping. So that meant walking down to the desk if we needed fresh towels, etc. The water pressure is low and it took a while for the water to get hot. Its great place for a family traveling and planning to stay for a week or more. Its not really worth the $$ for weekend traveler(s).MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded July 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2013</t>
+  </si>
+  <si>
+    <t>The hotel staff was friendly and helpful. The location was good, close to I-10..convenient to downtown. It was fairly close to restuarants, shops &amp; grocery stores if needed. It was interesting the desk hours were only until 11 pm. Not sure what would have happen if we needed assistance after hours. Because it is an extended stay I did not realize if you are staying less than 7 days, your stay does not include housekeeping. So that meant walking down to the desk if we needed fresh towels, etc. The water pressure is low and it took a while for the water to get hot. Its great place for a family traveling and planning to stay for a week or more. Its not really worth the $$ for weekend traveler(s).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r165971216-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>165971216</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Amazing customer service</t>
+  </si>
+  <si>
+    <t>We arrived very early around 4 AM after a flight delay. We were supposed to arrive at midnight so I called ahead to let them know. The lady at the front desk assured me everything would be fine and not to worry. Carla the security guard checked us in and she was very friendly and helpful. She made sure we found our room okay knowing how exhausted we were. The room itself was basic, but had a full size refrigerator and a stove. It would be perfect for a longer stay and considerably more affordable than staying in New Orleans. The hotel is ten minutes from the airport. Someone who prefers upscale hotels would be very unhappy here, but if you're just looking for a cheap place to sleep that is air conditioned and clean, this is the place. I would stay again. The best thing about Metairie is that it is close to New Orleans. Thanks Carla for a great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We arrived very early around 4 AM after a flight delay. We were supposed to arrive at midnight so I called ahead to let them know. The lady at the front desk assured me everything would be fine and not to worry. Carla the security guard checked us in and she was very friendly and helpful. She made sure we found our room okay knowing how exhausted we were. The room itself was basic, but had a full size refrigerator and a stove. It would be perfect for a longer stay and considerably more affordable than staying in New Orleans. The hotel is ten minutes from the airport. Someone who prefers upscale hotels would be very unhappy here, but if you're just looking for a cheap place to sleep that is air conditioned and clean, this is the place. I would stay again. The best thing about Metairie is that it is close to New Orleans. Thanks Carla for a great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r162996906-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>162996906</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>Good customer service</t>
+  </si>
+  <si>
+    <t>Good customer service, the Front Desk lady (Monique) was really nice and helpfull. I checked in like at 3 a.m. after having a terrible service at another hotel and had a 10 hour drive . I got to say that my family and I were pleased by the stay. The hotel looks great, everything was clean!! We really liked it, and next time we will be at Metairie, LA will stay here at this hotel. Thanks!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Good customer service, the Front Desk lady (Monique) was really nice and helpfull. I checked in like at 3 a.m. after having a terrible service at another hotel and had a 10 hour drive . I got to say that my family and I were pleased by the stay. The hotel looks great, everything was clean!! We really liked it, and next time we will be at Metairie, LA will stay here at this hotel. Thanks!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r161706618-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>161706618</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff but NO HOT WATER &amp; the A/C SHUTS OFF AUTOMATICALLY AFTER 5 MINUTES.</t>
+  </si>
+  <si>
+    <t>I will start off with the good, the staff was very nice and helpful. Unfortunately that did not make up for the fact that if you forget any toiletries outside of toothpaste they have none provided and there is no store within walking distance. When I took a shower or washed my hands I was never able to get the water to go beyond warm, which was horrible because I really enjoy the hot showers you can normally take at hotels. Also the a/c in the room automatically shuts off after 5 minutes making it very difficult to keep the room consistently cool. The water and a/c issues were real downers on my week long vacation in New Orleans as those are the 2 things I normally look forward to when staying in a hotel, a hot shower and cold room to sleep in. I do not recommend staying here unfortunately, it is slightly cheaper than the surrounding hotels but you pay for that savings in sacrificing hot water and a cool room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded May 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2013</t>
+  </si>
+  <si>
+    <t>I will start off with the good, the staff was very nice and helpful. Unfortunately that did not make up for the fact that if you forget any toiletries outside of toothpaste they have none provided and there is no store within walking distance. When I took a shower or washed my hands I was never able to get the water to go beyond warm, which was horrible because I really enjoy the hot showers you can normally take at hotels. Also the a/c in the room automatically shuts off after 5 minutes making it very difficult to keep the room consistently cool. The water and a/c issues were real downers on my week long vacation in New Orleans as those are the 2 things I normally look forward to when staying in a hotel, a hot shower and cold room to sleep in. I do not recommend staying here unfortunately, it is slightly cheaper than the surrounding hotels but you pay for that savings in sacrificing hot water and a cool room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r160590644-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>160590644</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Best value for a long-term stay</t>
+  </si>
+  <si>
+    <t>Very much enjoyed my stay that lasted 2 months as I relocated to the New Orleans area.  Discounted rate after 30 days made it very affordable compared to any alternative.  Stayed on the first floor, and the hotel was very clean and comfortable.  Looked like it was just painted and new fixtures installed.  Morning "grab-n-go" breakfast was always ready by 6 a.m. and was enough for me.  There is an iHOP next door if I wanted more, plus there were plenty of other restaurants within a 2-mile radius of the hotel to eat out for any meal.  Grocery stores within 1 mile of the hotel so I used the room kitchen quite often too.  I always felt safe when i would take a walk around the hotel.  Room cleaning was weekly, and the staff even washed my dishes.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Very much enjoyed my stay that lasted 2 months as I relocated to the New Orleans area.  Discounted rate after 30 days made it very affordable compared to any alternative.  Stayed on the first floor, and the hotel was very clean and comfortable.  Looked like it was just painted and new fixtures installed.  Morning "grab-n-go" breakfast was always ready by 6 a.m. and was enough for me.  There is an iHOP next door if I wanted more, plus there were plenty of other restaurants within a 2-mile radius of the hotel to eat out for any meal.  Grocery stores within 1 mile of the hotel so I used the room kitchen quite often too.  I always felt safe when i would take a walk around the hotel.  Room cleaning was weekly, and the staff even washed my dishes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r157693634-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>157693634</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Basic accommodations</t>
+  </si>
+  <si>
+    <t>We stayed there recently in a group, but I was not part of choosing our accommodations.  This hotel is a place to put your head down, but not much else.  The beds couldn't have been harder, there is no pool or fitness facility, and the "grab and go" breakfast wasn't much more than coffee and granola bars or fruit. The hotel was convenient to downtown NOLA, so that's why it got 3 out of 5.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Scott M, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded April 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2013</t>
+  </si>
+  <si>
+    <t>We stayed there recently in a group, but I was not part of choosing our accommodations.  This hotel is a place to put your head down, but not much else.  The beds couldn't have been harder, there is no pool or fitness facility, and the "grab and go" breakfast wasn't much more than coffee and granola bars or fruit. The hotel was convenient to downtown NOLA, so that's why it got 3 out of 5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r155071038-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>155071038</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Bed Bug Infestation!! DO NOT STAY!</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel.  It's disgusting. There is a bed bug infestation in MANY of the rooms.  We had a group stay here - and more than half of the people who stayed were covered in bites from the first night. They will tell you that they have replaced all the mattresses - but it is not true.  Pick up the sheets and check for the tiny tick-lick bugs, and you'll also see the stains from disgusting, old, dirty mattresses.  Besides the dangerous infestation, the blankets on the bed were COVERED in hair, the bathtubs were dirty and also had hair in it.  There was NO HOT WATER, only tepid, lukewarm water at best. Also - there are very dangerous looking characters staying there; it looked and sounded like a group of meth dealers were having a party in the room across the hall from me.   Also - there are NO amenities. NO gym. No food. No housekeeping.  And no where to eat near by.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel.  It's disgusting. There is a bed bug infestation in MANY of the rooms.  We had a group stay here - and more than half of the people who stayed were covered in bites from the first night. They will tell you that they have replaced all the mattresses - but it is not true.  Pick up the sheets and check for the tiny tick-lick bugs, and you'll also see the stains from disgusting, old, dirty mattresses.  Besides the dangerous infestation, the blankets on the bed were COVERED in hair, the bathtubs were dirty and also had hair in it.  There was NO HOT WATER, only tepid, lukewarm water at best. Also - there are very dangerous looking characters staying there; it looked and sounded like a group of meth dealers were having a party in the room across the hall from me.   Also - there are NO amenities. NO gym. No food. No housekeeping.  And no where to eat near by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r154959375-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>154959375</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Good for long term, not weekend stay</t>
+  </si>
+  <si>
+    <t>Reservation given to manager over phone wasn't entered in system.We were lucky front desk was able to squeeze us in. Property has just been remodeled so it looks good, rooms are nice. Bathroom wasn't cleaned properly. This chain expects you to have everything yourself, shampoo, hair dryer, breakfast, none of which are supplied unless you ask for them. Housekeeping schedule is like once a week unless room turns over. We were fortunate to receive a touch up during our two day stay. If you are road warrior and carry your own supplies then for the money its a great place. For a family on a weekend, keep your expectations in check. We paid a lower rate than other hotels in the area, and got what we paid for. When available area rooms or budget is tight, its a good place to stay. If you can pay $15-20 more for another hotel, I would suggest staying somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott M, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded March 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2013</t>
+  </si>
+  <si>
+    <t>Reservation given to manager over phone wasn't entered in system.We were lucky front desk was able to squeeze us in. Property has just been remodeled so it looks good, rooms are nice. Bathroom wasn't cleaned properly. This chain expects you to have everything yourself, shampoo, hair dryer, breakfast, none of which are supplied unless you ask for them. Housekeeping schedule is like once a week unless room turns over. We were fortunate to receive a touch up during our two day stay. If you are road warrior and carry your own supplies then for the money its a great place. For a family on a weekend, keep your expectations in check. We paid a lower rate than other hotels in the area, and got what we paid for. When available area rooms or budget is tight, its a good place to stay. If you can pay $15-20 more for another hotel, I would suggest staying somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r154844057-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>154844057</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Great Place! Highly recommend.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel last week with our infant baby for three nights. It is a great place,absolutely loved the hotel. The staff are super friendly and couteous. they went out of their way to read my notes requesting a nice room since we had a baby. My wife and I appreciated that a lot. Nice clean beds, well ventilated rooms, kitchenette is great. It was a very nice place, and in a good location. The only downside is this location is far away from french quarter. Unlike what the city of New Orleans claims, the bus service (JeT) is not that great. It is a long walk to the bus stop. Cabs are the only mode of transport which was disappointing. If you have a car, this would be a great place to stay for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel last week with our infant baby for three nights. It is a great place,absolutely loved the hotel. The staff are super friendly and couteous. they went out of their way to read my notes requesting a nice room since we had a baby. My wife and I appreciated that a lot. Nice clean beds, well ventilated rooms, kitchenette is great. It was a very nice place, and in a good location. The only downside is this location is far away from french quarter. Unlike what the city of New Orleans claims, the bus service (JeT) is not that great. It is a long walk to the bus stop. Cabs are the only mode of transport which was disappointing. If you have a car, this would be a great place to stay for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r154539546-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>154539546</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>This hotelhas been completely renovate. the rooms are spotless. the front desk staff super friendly and helpful. the only minor complaint is that the tv channels ofered area bit boring. other than that....EXCELLENT.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott M, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded March 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2013</t>
+  </si>
+  <si>
+    <t>This hotelhas been completely renovate. the rooms are spotless. the front desk staff super friendly and helpful. the only minor complaint is that the tv channels ofered area bit boring. other than that....EXCELLENT.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r154509251-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>154509251</t>
+  </si>
+  <si>
+    <t>Fairly Good for the price!</t>
+  </si>
+  <si>
+    <t>Clean, roomy, bed not very soft, nice to have a refrigerator.No breakfast available at 9:15 and it must have only been fruit or bread.Extremely nice check in staff.Very busy hotel; books up quickly and they are on the phone a lot while checking you in and out.  If you stay more than one night, they do not replace t.p., tolietries, or wash your towels.  You would have to go to the front desk to request more.  They only replace them once per week.....MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, roomy, bed not very soft, nice to have a refrigerator.No breakfast available at 9:15 and it must have only been fruit or bread.Extremely nice check in staff.Very busy hotel; books up quickly and they are on the phone a lot while checking you in and out.  If you stay more than one night, they do not replace t.p., tolietries, or wash your towels.  You would have to go to the front desk to request more.  They only replace them once per week.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r152831284-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>152831284</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Excellen t service all around.</t>
+  </si>
+  <si>
+    <t>I stayed here for about week and half after being in Austin, Texas.I am A Canadian and very impress with this hotel. I love the washing machine on site as its very handy to do laundry when you been travling for last month across the fine states.I-Hop was handy for breakfast and other meals.The staff was very helpful with stuff you ask and nothing was 2 small for them.Only complants was if you have chexk out early it be hard to get hold someone to help you out. If you know you have leave early try get most of check out done night before.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Scott M, Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded February 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for about week and half after being in Austin, Texas.I am A Canadian and very impress with this hotel. I love the washing machine on site as its very handy to do laundry when you been travling for last month across the fine states.I-Hop was handy for breakfast and other meals.The staff was very helpful with stuff you ask and nothing was 2 small for them.Only complants was if you have chexk out early it be hard to get hold someone to help you out. If you know you have leave early try get most of check out done night before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r151382595-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>151382595</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>Good Inexpensive Roadside Hotel</t>
+  </si>
+  <si>
+    <t>Conveniently located right off I10 &amp; the Causeway. IHOP next door. Very Friendly staff. They let us check in early which was a plus. Looks like they have redone &amp; updated the rooms (probably with Super Bowl coming to town). Rooms are non smoking. Clean, efficient &amp; reasonable. Good for the traveller with a car. Taxi service also available.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded February 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2013</t>
+  </si>
+  <si>
+    <t>Conveniently located right off I10 &amp; the Causeway. IHOP next door. Very Friendly staff. They let us check in early which was a plus. Looks like they have redone &amp; updated the rooms (probably with Super Bowl coming to town). Rooms are non smoking. Clean, efficient &amp; reasonable. Good for the traveller with a car. Taxi service also available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r150429884-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>150429884</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Good location, clean and quiet rooms</t>
+  </si>
+  <si>
+    <t>I was traveling on business in the New Orleans area. I'd made a reservation at a La Quinta but when I arrived the desk clerk was so rude and told me I couldn't check in till later because none of the rooms were clean. I'd stayed at this particular Extended Stay America before so I went and hoped there was a room available because I had no reservations. The desk clerk was very nice and gave me a 1st floor room. The room was clean and ready. The location here is on the main street, Veterans Blvd, so it's easy access to stores, restaurants, freeway. New Orleans is not far away either. There is a Sonic right in front so it's good for a quick bite or soft drink. Since the Extended Stays have a refrigerator and stove with pots &amp; pans, dishes, etc., I go to the Rouse's market down the street and stock up on food to make my meals. The room was quiet at night and I slept very well. The front desk personnel was always polite and helpful. I will stay here again when I'm in the New Orleans area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>I was traveling on business in the New Orleans area. I'd made a reservation at a La Quinta but when I arrived the desk clerk was so rude and told me I couldn't check in till later because none of the rooms were clean. I'd stayed at this particular Extended Stay America before so I went and hoped there was a room available because I had no reservations. The desk clerk was very nice and gave me a 1st floor room. The room was clean and ready. The location here is on the main street, Veterans Blvd, so it's easy access to stores, restaurants, freeway. New Orleans is not far away either. There is a Sonic right in front so it's good for a quick bite or soft drink. Since the Extended Stays have a refrigerator and stove with pots &amp; pans, dishes, etc., I go to the Rouse's market down the street and stock up on food to make my meals. The room was quiet at night and I slept very well. The front desk personnel was always polite and helpful. I will stay here again when I'm in the New Orleans area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40314-d93092-r150153339-Extended_Stay_America_New_Orleans_Metairie-Metairie_Louisiana.html</t>
+  </si>
+  <si>
+    <t>150153339</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>The staff was excellent</t>
+  </si>
+  <si>
+    <t>The room was nice and the property was very well maintained, the staff was super nice.... Their was construction going on during the day which was a problem for me since I was getting in the bed around 3-4 in the morning, the hot water was luke warm at best in room 418MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - New Orleans - Metairie, responded to this reviewResponded January 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2013</t>
+  </si>
+  <si>
+    <t>The room was nice and the property was very well maintained, the staff was super nice.... Their was construction going on during the day which was a problem for me since I was getting in the bed around 3-4 in the morning, the hot water was luke warm at best in room 418More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +3034,7101 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>141</v>
+      </c>
+      <c r="X14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>183</v>
+      </c>
+      <c r="X19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>192</v>
+      </c>
+      <c r="X20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>201</v>
+      </c>
+      <c r="X21" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>234</v>
+      </c>
+      <c r="X25" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>242</v>
+      </c>
+      <c r="X26" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>250</v>
+      </c>
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" t="s">
+        <v>257</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>258</v>
+      </c>
+      <c r="X28" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s">
+        <v>265</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>271</v>
+      </c>
+      <c r="J30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K30" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30" t="s">
+        <v>274</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>275</v>
+      </c>
+      <c r="X30" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>283</v>
+      </c>
+      <c r="O32" t="s">
+        <v>114</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>290</v>
+      </c>
+      <c r="X32" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>294</v>
+      </c>
+      <c r="J33" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>298</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K34" t="s">
+        <v>302</v>
+      </c>
+      <c r="L34" t="s">
+        <v>303</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>304</v>
+      </c>
+      <c r="O34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>305</v>
+      </c>
+      <c r="X34" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" t="s">
+        <v>310</v>
+      </c>
+      <c r="K35" t="s">
+        <v>311</v>
+      </c>
+      <c r="L35" t="s">
+        <v>312</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>313</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>314</v>
+      </c>
+      <c r="X35" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>317</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K36" t="s">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>322</v>
+      </c>
+      <c r="O36" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>324</v>
+      </c>
+      <c r="J37" t="s">
+        <v>325</v>
+      </c>
+      <c r="K37" t="s">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s">
+        <v>327</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>322</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J38" t="s">
+        <v>330</v>
+      </c>
+      <c r="K38" t="s">
+        <v>331</v>
+      </c>
+      <c r="L38" t="s">
+        <v>332</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>333</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" t="s">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s">
+        <v>338</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>339</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>340</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>341</v>
+      </c>
+      <c r="J40" t="s">
+        <v>342</v>
+      </c>
+      <c r="K40" t="s">
+        <v>343</v>
+      </c>
+      <c r="L40" t="s">
+        <v>344</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>339</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>345</v>
+      </c>
+      <c r="X40" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>348</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>349</v>
+      </c>
+      <c r="J41" t="s">
+        <v>350</v>
+      </c>
+      <c r="K41" t="s">
+        <v>351</v>
+      </c>
+      <c r="L41" t="s">
+        <v>352</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>353</v>
+      </c>
+      <c r="O41" t="s">
+        <v>44</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s">
+        <v>358</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>359</v>
+      </c>
+      <c r="O42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>353</v>
+      </c>
+      <c r="O43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>370</v>
+      </c>
+      <c r="J44" t="s">
+        <v>371</v>
+      </c>
+      <c r="K44" t="s">
+        <v>372</v>
+      </c>
+      <c r="L44" t="s">
+        <v>373</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>304</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>375</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>376</v>
+      </c>
+      <c r="J45" t="s">
+        <v>377</v>
+      </c>
+      <c r="K45" t="s">
+        <v>378</v>
+      </c>
+      <c r="L45" t="s">
+        <v>379</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>304</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>381</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>382</v>
+      </c>
+      <c r="J46" t="s">
+        <v>383</v>
+      </c>
+      <c r="K46" t="s">
+        <v>384</v>
+      </c>
+      <c r="L46" t="s">
+        <v>385</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>304</v>
+      </c>
+      <c r="O46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>386</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>387</v>
+      </c>
+      <c r="J47" t="s">
+        <v>388</v>
+      </c>
+      <c r="K47" t="s">
+        <v>389</v>
+      </c>
+      <c r="L47" t="s">
+        <v>390</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>313</v>
+      </c>
+      <c r="O47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>392</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>393</v>
+      </c>
+      <c r="J48" t="s">
+        <v>394</v>
+      </c>
+      <c r="K48" t="s">
+        <v>395</v>
+      </c>
+      <c r="L48" t="s">
+        <v>396</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>397</v>
+      </c>
+      <c r="O48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49" t="s">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s">
+        <v>403</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>397</v>
+      </c>
+      <c r="O49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>405</v>
+      </c>
+      <c r="J50" t="s">
+        <v>406</v>
+      </c>
+      <c r="K50" t="s">
+        <v>407</v>
+      </c>
+      <c r="L50" t="s">
+        <v>408</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>359</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>409</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>410</v>
+      </c>
+      <c r="J51" t="s">
+        <v>411</v>
+      </c>
+      <c r="K51" t="s">
+        <v>412</v>
+      </c>
+      <c r="L51" t="s">
+        <v>413</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>414</v>
+      </c>
+      <c r="O51" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>415</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>416</v>
+      </c>
+      <c r="J52" t="s">
+        <v>417</v>
+      </c>
+      <c r="K52" t="s">
+        <v>418</v>
+      </c>
+      <c r="L52" t="s">
+        <v>419</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>420</v>
+      </c>
+      <c r="O52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>421</v>
+      </c>
+      <c r="X52" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>425</v>
+      </c>
+      <c r="J53" t="s">
+        <v>426</v>
+      </c>
+      <c r="K53" t="s">
+        <v>427</v>
+      </c>
+      <c r="L53" t="s">
+        <v>428</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>420</v>
+      </c>
+      <c r="O53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>421</v>
+      </c>
+      <c r="X53" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>430</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>431</v>
+      </c>
+      <c r="J54" t="s">
+        <v>432</v>
+      </c>
+      <c r="K54" t="s">
+        <v>433</v>
+      </c>
+      <c r="L54" t="s">
+        <v>434</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>435</v>
+      </c>
+      <c r="O54" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>436</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>437</v>
+      </c>
+      <c r="J55" t="s">
+        <v>438</v>
+      </c>
+      <c r="K55" t="s">
+        <v>439</v>
+      </c>
+      <c r="L55" t="s">
+        <v>440</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>435</v>
+      </c>
+      <c r="O55" t="s">
+        <v>44</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>442</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>443</v>
+      </c>
+      <c r="J56" t="s">
+        <v>444</v>
+      </c>
+      <c r="K56" t="s">
+        <v>445</v>
+      </c>
+      <c r="L56" t="s">
+        <v>446</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>447</v>
+      </c>
+      <c r="O56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>448</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>449</v>
+      </c>
+      <c r="J57" t="s">
+        <v>450</v>
+      </c>
+      <c r="K57" t="s">
+        <v>451</v>
+      </c>
+      <c r="L57" t="s">
+        <v>452</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>453</v>
+      </c>
+      <c r="O57" t="s">
+        <v>114</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>455</v>
+      </c>
+      <c r="J58" t="s">
+        <v>456</v>
+      </c>
+      <c r="K58" t="s">
+        <v>457</v>
+      </c>
+      <c r="L58" t="s">
+        <v>458</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>459</v>
+      </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>460</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>461</v>
+      </c>
+      <c r="J59" t="s">
+        <v>462</v>
+      </c>
+      <c r="K59" t="s">
+        <v>463</v>
+      </c>
+      <c r="L59" t="s">
+        <v>464</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>465</v>
+      </c>
+      <c r="O59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>467</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>468</v>
+      </c>
+      <c r="J60" t="s">
+        <v>469</v>
+      </c>
+      <c r="K60" t="s">
+        <v>470</v>
+      </c>
+      <c r="L60" t="s">
+        <v>471</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>472</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>473</v>
+      </c>
+      <c r="X60" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>476</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>477</v>
+      </c>
+      <c r="J61" t="s">
+        <v>478</v>
+      </c>
+      <c r="K61" t="s">
+        <v>479</v>
+      </c>
+      <c r="L61" t="s">
+        <v>480</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>472</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>481</v>
+      </c>
+      <c r="X61" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>484</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>485</v>
+      </c>
+      <c r="J62" t="s">
+        <v>486</v>
+      </c>
+      <c r="K62" t="s">
+        <v>487</v>
+      </c>
+      <c r="L62" t="s">
+        <v>488</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>489</v>
+      </c>
+      <c r="O62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>490</v>
+      </c>
+      <c r="X62" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>493</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>494</v>
+      </c>
+      <c r="J63" t="s">
+        <v>495</v>
+      </c>
+      <c r="K63" t="s">
+        <v>496</v>
+      </c>
+      <c r="L63" t="s">
+        <v>497</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>489</v>
+      </c>
+      <c r="O63" t="s">
+        <v>44</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>499</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>500</v>
+      </c>
+      <c r="J64" t="s">
+        <v>501</v>
+      </c>
+      <c r="K64" t="s">
+        <v>502</v>
+      </c>
+      <c r="L64" t="s">
+        <v>503</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>504</v>
+      </c>
+      <c r="O64" t="s">
+        <v>114</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>505</v>
+      </c>
+      <c r="X64" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>508</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>509</v>
+      </c>
+      <c r="J65" t="s">
+        <v>510</v>
+      </c>
+      <c r="K65" t="s">
+        <v>511</v>
+      </c>
+      <c r="L65" t="s">
+        <v>512</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>504</v>
+      </c>
+      <c r="O65" t="s">
+        <v>44</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>514</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>515</v>
+      </c>
+      <c r="J66" t="s">
+        <v>516</v>
+      </c>
+      <c r="K66" t="s">
+        <v>517</v>
+      </c>
+      <c r="L66" t="s">
+        <v>518</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>504</v>
+      </c>
+      <c r="O66" t="s">
+        <v>44</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>519</v>
+      </c>
+      <c r="X66" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>522</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>523</v>
+      </c>
+      <c r="J67" t="s">
+        <v>524</v>
+      </c>
+      <c r="K67" t="s">
+        <v>525</v>
+      </c>
+      <c r="L67" t="s">
+        <v>526</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>527</v>
+      </c>
+      <c r="O67" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>528</v>
+      </c>
+      <c r="X67" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>531</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>532</v>
+      </c>
+      <c r="J68" t="s">
+        <v>533</v>
+      </c>
+      <c r="K68" t="s">
+        <v>534</v>
+      </c>
+      <c r="L68" t="s">
+        <v>535</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>536</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>537</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>538</v>
+      </c>
+      <c r="J69" t="s">
+        <v>539</v>
+      </c>
+      <c r="K69" t="s">
+        <v>540</v>
+      </c>
+      <c r="L69" t="s">
+        <v>541</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>542</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>543</v>
+      </c>
+      <c r="X69" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>546</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>547</v>
+      </c>
+      <c r="J70" t="s">
+        <v>548</v>
+      </c>
+      <c r="K70" t="s">
+        <v>549</v>
+      </c>
+      <c r="L70" t="s">
+        <v>550</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>447</v>
+      </c>
+      <c r="O70" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>551</v>
+      </c>
+      <c r="X70" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>554</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>555</v>
+      </c>
+      <c r="J71" t="s">
+        <v>556</v>
+      </c>
+      <c r="K71" t="s">
+        <v>557</v>
+      </c>
+      <c r="L71" t="s">
+        <v>558</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>551</v>
+      </c>
+      <c r="X71" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>560</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>561</v>
+      </c>
+      <c r="J72" t="s">
+        <v>562</v>
+      </c>
+      <c r="K72" t="s">
+        <v>563</v>
+      </c>
+      <c r="L72" t="s">
+        <v>564</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>565</v>
+      </c>
+      <c r="X72" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>568</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>569</v>
+      </c>
+      <c r="J73" t="s">
+        <v>570</v>
+      </c>
+      <c r="K73" t="s">
+        <v>571</v>
+      </c>
+      <c r="L73" t="s">
+        <v>572</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>573</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>574</v>
+      </c>
+      <c r="X73" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>577</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>578</v>
+      </c>
+      <c r="J74" t="s">
+        <v>579</v>
+      </c>
+      <c r="K74" t="s">
+        <v>580</v>
+      </c>
+      <c r="L74" t="s">
+        <v>581</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>582</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>551</v>
+      </c>
+      <c r="X74" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>584</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>585</v>
+      </c>
+      <c r="J75" t="s">
+        <v>586</v>
+      </c>
+      <c r="K75" t="s">
+        <v>587</v>
+      </c>
+      <c r="L75" t="s">
+        <v>588</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>573</v>
+      </c>
+      <c r="O75" t="s">
+        <v>114</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>589</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>590</v>
+      </c>
+      <c r="J76" t="s">
+        <v>591</v>
+      </c>
+      <c r="K76" t="s">
+        <v>592</v>
+      </c>
+      <c r="L76" t="s">
+        <v>593</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>594</v>
+      </c>
+      <c r="O76" t="s">
+        <v>44</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>595</v>
+      </c>
+      <c r="X76" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>598</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>599</v>
+      </c>
+      <c r="J77" t="s">
+        <v>600</v>
+      </c>
+      <c r="K77" t="s">
+        <v>601</v>
+      </c>
+      <c r="L77" t="s">
+        <v>602</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>603</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>604</v>
+      </c>
+      <c r="J78" t="s">
+        <v>605</v>
+      </c>
+      <c r="K78" t="s">
+        <v>606</v>
+      </c>
+      <c r="L78" t="s">
+        <v>607</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>582</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>608</v>
+      </c>
+      <c r="X78" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>611</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>612</v>
+      </c>
+      <c r="J79" t="s">
+        <v>613</v>
+      </c>
+      <c r="K79" t="s">
+        <v>614</v>
+      </c>
+      <c r="L79" t="s">
+        <v>615</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>616</v>
+      </c>
+      <c r="O79" t="s">
+        <v>44</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>617</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>618</v>
+      </c>
+      <c r="J80" t="s">
+        <v>619</v>
+      </c>
+      <c r="K80" t="s">
+        <v>614</v>
+      </c>
+      <c r="L80" t="s">
+        <v>620</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>616</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>621</v>
+      </c>
+      <c r="X80" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>624</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>625</v>
+      </c>
+      <c r="J81" t="s">
+        <v>626</v>
+      </c>
+      <c r="K81" t="s">
+        <v>627</v>
+      </c>
+      <c r="L81" t="s">
+        <v>628</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>629</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>630</v>
+      </c>
+      <c r="J82" t="s">
+        <v>631</v>
+      </c>
+      <c r="K82" t="s">
+        <v>632</v>
+      </c>
+      <c r="L82" t="s">
+        <v>633</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>634</v>
+      </c>
+      <c r="O82" t="s">
+        <v>44</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>636</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>637</v>
+      </c>
+      <c r="J83" t="s">
+        <v>638</v>
+      </c>
+      <c r="K83" t="s">
+        <v>639</v>
+      </c>
+      <c r="L83" t="s">
+        <v>640</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>634</v>
+      </c>
+      <c r="O83" t="s">
+        <v>44</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>641</v>
+      </c>
+      <c r="X83" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>644</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>645</v>
+      </c>
+      <c r="J84" t="s">
+        <v>646</v>
+      </c>
+      <c r="K84" t="s">
+        <v>647</v>
+      </c>
+      <c r="L84" t="s">
+        <v>648</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>634</v>
+      </c>
+      <c r="O84" t="s">
+        <v>44</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>641</v>
+      </c>
+      <c r="X84" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>650</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>651</v>
+      </c>
+      <c r="J85" t="s">
+        <v>652</v>
+      </c>
+      <c r="K85" t="s">
+        <v>653</v>
+      </c>
+      <c r="L85" t="s">
+        <v>654</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>655</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>656</v>
+      </c>
+      <c r="J86" t="s">
+        <v>652</v>
+      </c>
+      <c r="K86" t="s">
+        <v>657</v>
+      </c>
+      <c r="L86" t="s">
+        <v>658</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>660</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>661</v>
+      </c>
+      <c r="J87" t="s">
+        <v>662</v>
+      </c>
+      <c r="K87" t="s">
+        <v>663</v>
+      </c>
+      <c r="L87" t="s">
+        <v>664</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>536</v>
+      </c>
+      <c r="O87" t="s">
+        <v>44</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>665</v>
+      </c>
+      <c r="X87" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>668</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>669</v>
+      </c>
+      <c r="J88" t="s">
+        <v>670</v>
+      </c>
+      <c r="K88" t="s">
+        <v>671</v>
+      </c>
+      <c r="L88" t="s">
+        <v>672</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>536</v>
+      </c>
+      <c r="O88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>673</v>
+      </c>
+      <c r="X88" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>676</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>677</v>
+      </c>
+      <c r="J89" t="s">
+        <v>678</v>
+      </c>
+      <c r="K89" t="s">
+        <v>679</v>
+      </c>
+      <c r="L89" t="s">
+        <v>680</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>594</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>673</v>
+      </c>
+      <c r="X89" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>682</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>683</v>
+      </c>
+      <c r="J90" t="s">
+        <v>684</v>
+      </c>
+      <c r="K90" t="s">
+        <v>685</v>
+      </c>
+      <c r="L90" t="s">
+        <v>686</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>688</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>689</v>
+      </c>
+      <c r="J91" t="s">
+        <v>690</v>
+      </c>
+      <c r="K91" t="s">
+        <v>691</v>
+      </c>
+      <c r="L91" t="s">
+        <v>692</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>693</v>
+      </c>
+      <c r="O91" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>694</v>
+      </c>
+      <c r="X91" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>697</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>698</v>
+      </c>
+      <c r="J92" t="s">
+        <v>699</v>
+      </c>
+      <c r="K92" t="s">
+        <v>700</v>
+      </c>
+      <c r="L92" t="s">
+        <v>701</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>694</v>
+      </c>
+      <c r="X92" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>703</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>704</v>
+      </c>
+      <c r="J93" t="s">
+        <v>705</v>
+      </c>
+      <c r="K93" t="s">
+        <v>706</v>
+      </c>
+      <c r="L93" t="s">
+        <v>707</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>708</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>694</v>
+      </c>
+      <c r="X93" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>710</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s">
+        <v>711</v>
+      </c>
+      <c r="J94" t="s">
+        <v>712</v>
+      </c>
+      <c r="K94" t="s">
+        <v>713</v>
+      </c>
+      <c r="L94" t="s">
+        <v>714</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>715</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>716</v>
+      </c>
+      <c r="J95" t="s">
+        <v>717</v>
+      </c>
+      <c r="K95" t="s">
+        <v>718</v>
+      </c>
+      <c r="L95" t="s">
+        <v>719</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>720</v>
+      </c>
+      <c r="O95" t="s">
+        <v>80</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>721</v>
+      </c>
+      <c r="X95" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>724</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>725</v>
+      </c>
+      <c r="J96" t="s">
+        <v>726</v>
+      </c>
+      <c r="K96" t="s">
+        <v>727</v>
+      </c>
+      <c r="L96" t="s">
+        <v>728</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>729</v>
+      </c>
+      <c r="O96" t="s">
+        <v>114</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>730</v>
+      </c>
+      <c r="X96" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>733</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s">
+        <v>734</v>
+      </c>
+      <c r="J97" t="s">
+        <v>735</v>
+      </c>
+      <c r="K97" t="s">
+        <v>736</v>
+      </c>
+      <c r="L97" t="s">
+        <v>737</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>738</v>
+      </c>
+      <c r="O97" t="s">
+        <v>44</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>730</v>
+      </c>
+      <c r="X97" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>740</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s">
+        <v>741</v>
+      </c>
+      <c r="J98" t="s">
+        <v>742</v>
+      </c>
+      <c r="K98" t="s">
+        <v>743</v>
+      </c>
+      <c r="L98" t="s">
+        <v>744</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>738</v>
+      </c>
+      <c r="O98" t="s">
+        <v>34</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>730</v>
+      </c>
+      <c r="X98" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>746</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" t="s">
+        <v>747</v>
+      </c>
+      <c r="J99" t="s">
+        <v>748</v>
+      </c>
+      <c r="K99" t="s">
+        <v>749</v>
+      </c>
+      <c r="L99" t="s">
+        <v>750</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>751</v>
+      </c>
+      <c r="X99" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>754</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s">
+        <v>755</v>
+      </c>
+      <c r="J100" t="s">
+        <v>756</v>
+      </c>
+      <c r="K100" t="s">
+        <v>757</v>
+      </c>
+      <c r="L100" t="s">
+        <v>758</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>759</v>
+      </c>
+      <c r="O100" t="s">
+        <v>80</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>760</v>
+      </c>
+      <c r="X100" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>763</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" t="s">
+        <v>764</v>
+      </c>
+      <c r="J101" t="s">
+        <v>765</v>
+      </c>
+      <c r="K101" t="s">
+        <v>766</v>
+      </c>
+      <c r="L101" t="s">
+        <v>767</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>768</v>
+      </c>
+      <c r="O101" t="s">
+        <v>114</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>769</v>
+      </c>
+      <c r="X101" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>772</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s">
+        <v>773</v>
+      </c>
+      <c r="J102" t="s">
+        <v>774</v>
+      </c>
+      <c r="K102" t="s">
+        <v>775</v>
+      </c>
+      <c r="L102" t="s">
+        <v>776</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>777</v>
+      </c>
+      <c r="O102" t="s">
+        <v>63</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>779</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" t="s">
+        <v>780</v>
+      </c>
+      <c r="J103" t="s">
+        <v>781</v>
+      </c>
+      <c r="K103" t="s">
+        <v>782</v>
+      </c>
+      <c r="L103" t="s">
+        <v>783</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>777</v>
+      </c>
+      <c r="O103" t="s">
+        <v>34</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>784</v>
+      </c>
+      <c r="X103" t="s">
+        <v>785</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>787</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" t="s">
+        <v>788</v>
+      </c>
+      <c r="J104" t="s">
+        <v>789</v>
+      </c>
+      <c r="K104" t="s">
+        <v>790</v>
+      </c>
+      <c r="L104" t="s">
+        <v>791</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>777</v>
+      </c>
+      <c r="O104" t="s">
+        <v>34</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>784</v>
+      </c>
+      <c r="X104" t="s">
+        <v>785</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" t="s">
+        <v>793</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" t="s">
+        <v>794</v>
+      </c>
+      <c r="J105" t="s">
+        <v>795</v>
+      </c>
+      <c r="K105" t="s">
+        <v>796</v>
+      </c>
+      <c r="L105" t="s">
+        <v>797</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>777</v>
+      </c>
+      <c r="O105" t="s">
+        <v>63</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>798</v>
+      </c>
+      <c r="X105" t="s">
+        <v>799</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>801</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" t="s">
+        <v>802</v>
+      </c>
+      <c r="J106" t="s">
+        <v>795</v>
+      </c>
+      <c r="K106" t="s">
+        <v>803</v>
+      </c>
+      <c r="L106" t="s">
+        <v>804</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
+        <v>777</v>
+      </c>
+      <c r="O106" t="s">
+        <v>44</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>798</v>
+      </c>
+      <c r="X106" t="s">
+        <v>799</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" t="s">
+        <v>806</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" t="s">
+        <v>807</v>
+      </c>
+      <c r="J107" t="s">
+        <v>808</v>
+      </c>
+      <c r="K107" t="s">
+        <v>809</v>
+      </c>
+      <c r="L107" t="s">
+        <v>810</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>811</v>
+      </c>
+      <c r="O107" t="s">
+        <v>80</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>812</v>
+      </c>
+      <c r="X107" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" t="s">
+        <v>815</v>
+      </c>
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I108" t="s">
+        <v>816</v>
+      </c>
+      <c r="J108" t="s">
+        <v>817</v>
+      </c>
+      <c r="K108" t="s">
+        <v>818</v>
+      </c>
+      <c r="L108" t="s">
+        <v>819</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>759</v>
+      </c>
+      <c r="O108" t="s">
+        <v>44</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>820</v>
+      </c>
+      <c r="X108" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" t="s">
+        <v>823</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" t="s">
+        <v>824</v>
+      </c>
+      <c r="J109" t="s">
+        <v>825</v>
+      </c>
+      <c r="K109" t="s">
+        <v>826</v>
+      </c>
+      <c r="L109" t="s">
+        <v>827</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>828</v>
+      </c>
+      <c r="O109" t="s">
+        <v>63</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>829</v>
+      </c>
+      <c r="X109" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>36868</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" t="s">
+        <v>832</v>
+      </c>
+      <c r="G110" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" t="s">
+        <v>833</v>
+      </c>
+      <c r="J110" t="s">
+        <v>834</v>
+      </c>
+      <c r="K110" t="s">
+        <v>835</v>
+      </c>
+      <c r="L110" t="s">
+        <v>836</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>837</v>
+      </c>
+      <c r="X110" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>839</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +10151,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>840</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>841</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>842</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>843</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>844</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>845</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>846</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>847</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +10183,31 @@
         <v>36868</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>849</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>850</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>851</v>
       </c>
       <c r="E2" t="n">
         <v>70001</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>852</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>853</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>854</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>855</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
